--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34763E-E794-4741-BBD8-3E03B087EB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53539DAA-CE03-4B67-967D-F17E8D288DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -2846,137 +2846,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="338">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="325">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -29821,1562 +29691,1562 @@
   </sheetData>
   <autoFilter ref="A1:V343" xr:uid="{C54AF10E-E059-4F84-9C3A-10A5CBE61918}"/>
   <conditionalFormatting sqref="C180:H208 D209:D263 E209:E261 C209:C249 F209:H262 G283:H302 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J180:J262 L180:L262 L152 N152 N180:N262 P180:P262 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152 P283:P302 N283:N302 L283:L302 J283:J302">
-    <cfRule type="containsText" dxfId="337" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="324" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="336" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="323" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="335" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="322" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="334" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="321" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283:C302">
-    <cfRule type="containsText" dxfId="333" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="320" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:F302">
-    <cfRule type="containsText" dxfId="332" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="319" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C262:C263 E262">
-    <cfRule type="containsText" dxfId="331" priority="334" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="318" priority="334" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="330" priority="346" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="317" priority="346" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="containsText" dxfId="329" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="316" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="328" priority="344" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="315" priority="344" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="containsText" dxfId="327" priority="343" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="314" priority="343" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="containsText" dxfId="326" priority="342" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="313" priority="342" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="containsText" dxfId="325" priority="341" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="312" priority="341" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="containsText" dxfId="324" priority="340" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="311" priority="340" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C257">
-    <cfRule type="containsText" dxfId="323" priority="339" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="310" priority="339" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C258">
-    <cfRule type="containsText" dxfId="322" priority="338" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="309" priority="338" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C259">
-    <cfRule type="containsText" dxfId="321" priority="337" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="308" priority="337" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="containsText" dxfId="320" priority="336" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="307" priority="336" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C261">
-    <cfRule type="containsText" dxfId="319" priority="335" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="306" priority="335" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="318" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="305" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="317" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="304" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="316" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="303" priority="325" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="315" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="302" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="314" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="301" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="313" priority="301" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="300" priority="301" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="312" priority="300" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="299" priority="300" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="311" priority="297" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="298" priority="297" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="310" priority="296" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="297" priority="296" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="309" priority="295" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="296" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="308" priority="294" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="295" priority="294" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q180:Q262 Q283:Q302">
-    <cfRule type="containsText" dxfId="307" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="294" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I180:I262 I283:I302">
-    <cfRule type="containsText" dxfId="306" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="293" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="305" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="292" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="304" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="291" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K180:K262 K152 K283:K302">
-    <cfRule type="containsText" dxfId="303" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="290" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="302" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="289" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="301" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="288" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M180:M262 M283:M302">
-    <cfRule type="containsText" dxfId="300" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="287" priority="308" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="299" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="286" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="298" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="285" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O180:O262 O152 O59:O126 O2:O48 O283:O302">
-    <cfRule type="containsText" dxfId="297" priority="305" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="284" priority="305" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="296" priority="304" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="283" priority="304" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="295" priority="303" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="282" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="294" priority="299" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="281" priority="299" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="293" priority="298" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="280" priority="298" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180:V261 T180:T261 T283:T302 V283:V302">
-    <cfRule type="containsText" dxfId="292" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="279" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U180:U261 U283:U302">
-    <cfRule type="containsText" dxfId="291" priority="292" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="278" priority="292" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:S261 S283:S302">
-    <cfRule type="containsText" dxfId="290" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="277" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R180:R262 R283:R302">
-    <cfRule type="containsText" dxfId="289" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="276" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263:H263 J263 L263 N263 P263">
-    <cfRule type="containsText" dxfId="288" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="275" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="containsText" dxfId="287" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="274" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q263">
-    <cfRule type="containsText" dxfId="286" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="273" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I263">
-    <cfRule type="containsText" dxfId="285" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="272" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K263">
-    <cfRule type="containsText" dxfId="284" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="271" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M263">
-    <cfRule type="containsText" dxfId="283" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="270" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263">
-    <cfRule type="containsText" dxfId="282" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="269" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="containsText" dxfId="281" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="268" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="containsText" dxfId="280" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="267" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O264">
-    <cfRule type="containsText" dxfId="279" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="266" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R263">
-    <cfRule type="containsText" dxfId="278" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="265" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264:D266 D273">
-    <cfRule type="containsText" dxfId="277" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="264" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C266 C273">
-    <cfRule type="containsText" dxfId="276" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="263" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264:H264 J264 L264 N264 P264">
-    <cfRule type="containsText" dxfId="275" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="262" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264">
-    <cfRule type="containsText" dxfId="274" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="261" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q264">
-    <cfRule type="containsText" dxfId="273" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="260" priority="265" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264">
-    <cfRule type="containsText" dxfId="272" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="259" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V264 T264">
-    <cfRule type="containsText" dxfId="271" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="258" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U264">
-    <cfRule type="containsText" dxfId="270" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="257" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S264">
-    <cfRule type="containsText" dxfId="269" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R264">
-    <cfRule type="containsText" dxfId="268" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S262">
-    <cfRule type="containsText" dxfId="267" priority="255" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="255" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U262">
-    <cfRule type="containsText" dxfId="266" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U263">
-    <cfRule type="containsText" dxfId="265" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T263 V263">
-    <cfRule type="containsText" dxfId="264" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T262 V262">
-    <cfRule type="containsText" dxfId="263" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S263">
-    <cfRule type="containsText" dxfId="262" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:H265 J265 L265 N265 P265">
-    <cfRule type="containsText" dxfId="261" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="containsText" dxfId="260" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q265">
-    <cfRule type="containsText" dxfId="259" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="containsText" dxfId="258" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="containsText" dxfId="257" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="containsText" dxfId="256" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O265">
-    <cfRule type="containsText" dxfId="255" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R265">
-    <cfRule type="containsText" dxfId="254" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U265">
-    <cfRule type="containsText" dxfId="253" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T265 V265">
-    <cfRule type="containsText" dxfId="252" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S265">
-    <cfRule type="containsText" dxfId="251" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266 L266 N266 P266 F266:H266 F273:H273">
-    <cfRule type="containsText" dxfId="250" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E266 E273">
-    <cfRule type="containsText" dxfId="249" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q266">
-    <cfRule type="containsText" dxfId="248" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="containsText" dxfId="247" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266">
-    <cfRule type="containsText" dxfId="246" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266">
-    <cfRule type="containsText" dxfId="245" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O266">
-    <cfRule type="containsText" dxfId="244" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R266">
-    <cfRule type="containsText" dxfId="243" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U266">
-    <cfRule type="containsText" dxfId="242" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T266 V266">
-    <cfRule type="containsText" dxfId="241" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S266">
-    <cfRule type="containsText" dxfId="240" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J273 L273 N273 P273">
-    <cfRule type="containsText" dxfId="239" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q273">
-    <cfRule type="containsText" dxfId="238" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I273">
-    <cfRule type="containsText" dxfId="237" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K273">
-    <cfRule type="containsText" dxfId="236" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M273">
-    <cfRule type="containsText" dxfId="235" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O273">
-    <cfRule type="containsText" dxfId="234" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R273">
-    <cfRule type="containsText" dxfId="233" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U273">
-    <cfRule type="containsText" dxfId="232" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T273 V273">
-    <cfRule type="containsText" dxfId="231" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S273">
-    <cfRule type="containsText" dxfId="230" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D274">
-    <cfRule type="containsText" dxfId="229" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="containsText" dxfId="228" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274:H274">
-    <cfRule type="containsText" dxfId="227" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274">
-    <cfRule type="containsText" dxfId="226" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J274 L274 N274 P274">
-    <cfRule type="containsText" dxfId="225" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q274">
-    <cfRule type="containsText" dxfId="224" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I274">
-    <cfRule type="containsText" dxfId="223" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274">
-    <cfRule type="containsText" dxfId="222" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M274">
-    <cfRule type="containsText" dxfId="221" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O274">
-    <cfRule type="containsText" dxfId="220" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274">
-    <cfRule type="containsText" dxfId="219" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U274">
-    <cfRule type="containsText" dxfId="218" priority="205" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="205" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T274 V274">
-    <cfRule type="containsText" dxfId="217" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S274">
-    <cfRule type="containsText" dxfId="216" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D275">
-    <cfRule type="containsText" dxfId="215" priority="204" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="204" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="containsText" dxfId="214" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:H275">
-    <cfRule type="containsText" dxfId="213" priority="202" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="202" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E275">
-    <cfRule type="containsText" dxfId="212" priority="201" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="201" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J275 L275 N275 P275">
-    <cfRule type="containsText" dxfId="211" priority="200" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="200" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q275">
-    <cfRule type="containsText" dxfId="210" priority="194" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="194" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I275">
-    <cfRule type="containsText" dxfId="209" priority="199" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="199" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K275">
-    <cfRule type="containsText" dxfId="208" priority="198" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="198" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M275">
-    <cfRule type="containsText" dxfId="207" priority="197" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O275">
-    <cfRule type="containsText" dxfId="206" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275">
-    <cfRule type="containsText" dxfId="205" priority="195" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="195" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U275">
-    <cfRule type="containsText" dxfId="204" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T275 V275">
-    <cfRule type="containsText" dxfId="203" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S275">
-    <cfRule type="containsText" dxfId="202" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D276">
-    <cfRule type="containsText" dxfId="201" priority="190" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="190" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C276">
-    <cfRule type="containsText" dxfId="200" priority="189" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="189" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F276:H276">
-    <cfRule type="containsText" dxfId="199" priority="188" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="188" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E276">
-    <cfRule type="containsText" dxfId="198" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J276 L276 N276 P276">
-    <cfRule type="containsText" dxfId="197" priority="186" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="186" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q276">
-    <cfRule type="containsText" dxfId="196" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I276">
-    <cfRule type="containsText" dxfId="195" priority="185" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K276">
-    <cfRule type="containsText" dxfId="194" priority="184" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M276">
-    <cfRule type="containsText" dxfId="193" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O276">
-    <cfRule type="containsText" dxfId="192" priority="182" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R276">
-    <cfRule type="containsText" dxfId="191" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U276">
-    <cfRule type="containsText" dxfId="190" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T276 V276">
-    <cfRule type="containsText" dxfId="189" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S276">
-    <cfRule type="containsText" dxfId="188" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D277">
-    <cfRule type="containsText" dxfId="187" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C277">
-    <cfRule type="containsText" dxfId="186" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277:H277">
-    <cfRule type="containsText" dxfId="185" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E277">
-    <cfRule type="containsText" dxfId="184" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J277 L277 N277 P277">
-    <cfRule type="containsText" dxfId="183" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="containsText" dxfId="182" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I277">
-    <cfRule type="containsText" dxfId="181" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K277">
-    <cfRule type="containsText" dxfId="180" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M277">
-    <cfRule type="containsText" dxfId="179" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277">
-    <cfRule type="containsText" dxfId="178" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R277">
-    <cfRule type="containsText" dxfId="177" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U277">
-    <cfRule type="containsText" dxfId="176" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T277 V277">
-    <cfRule type="containsText" dxfId="175" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S277">
-    <cfRule type="containsText" dxfId="174" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U268">
-    <cfRule type="containsText" dxfId="173" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U267">
-    <cfRule type="containsText" dxfId="172" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U270">
-    <cfRule type="containsText" dxfId="171" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278">
-    <cfRule type="containsText" dxfId="170" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C278">
-    <cfRule type="containsText" dxfId="169" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F278:H278">
-    <cfRule type="containsText" dxfId="168" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278">
-    <cfRule type="containsText" dxfId="167" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J278 L278 N278 P278">
-    <cfRule type="containsText" dxfId="166" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q278">
-    <cfRule type="containsText" dxfId="165" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I278">
-    <cfRule type="containsText" dxfId="164" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K278">
-    <cfRule type="containsText" dxfId="163" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M278">
-    <cfRule type="containsText" dxfId="162" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O278">
-    <cfRule type="containsText" dxfId="161" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R278">
-    <cfRule type="containsText" dxfId="160" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U278">
-    <cfRule type="containsText" dxfId="159" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T278 V278">
-    <cfRule type="containsText" dxfId="158" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S278">
-    <cfRule type="containsText" dxfId="157" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="containsText" dxfId="156" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C279">
-    <cfRule type="containsText" dxfId="155" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279:H279">
-    <cfRule type="containsText" dxfId="154" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E279">
-    <cfRule type="containsText" dxfId="153" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J279 L279 N279 P279">
-    <cfRule type="containsText" dxfId="152" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q279">
-    <cfRule type="containsText" dxfId="151" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I279">
-    <cfRule type="containsText" dxfId="150" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K279">
-    <cfRule type="containsText" dxfId="149" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M279">
-    <cfRule type="containsText" dxfId="148" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O279">
-    <cfRule type="containsText" dxfId="147" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R279">
-    <cfRule type="containsText" dxfId="146" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U279">
-    <cfRule type="containsText" dxfId="145" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T279 V279">
-    <cfRule type="containsText" dxfId="144" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S279">
-    <cfRule type="containsText" dxfId="143" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D280">
-    <cfRule type="containsText" dxfId="142" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280">
-    <cfRule type="containsText" dxfId="141" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F280:H280">
-    <cfRule type="containsText" dxfId="140" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E280">
-    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J280 L280 N280 P280">
-    <cfRule type="containsText" dxfId="138" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q280">
-    <cfRule type="containsText" dxfId="137" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I280">
-    <cfRule type="containsText" dxfId="136" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280">
-    <cfRule type="containsText" dxfId="135" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M280">
-    <cfRule type="containsText" dxfId="134" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O280">
-    <cfRule type="containsText" dxfId="133" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R280">
-    <cfRule type="containsText" dxfId="132" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U280">
-    <cfRule type="containsText" dxfId="131" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T280 V280">
-    <cfRule type="containsText" dxfId="130" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S280">
-    <cfRule type="containsText" dxfId="129" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="containsText" dxfId="128" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C281">
-    <cfRule type="containsText" dxfId="127" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F281:H281">
-    <cfRule type="containsText" dxfId="126" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281">
-    <cfRule type="containsText" dxfId="125" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J281 L281 N281 P281">
-    <cfRule type="containsText" dxfId="124" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q281">
-    <cfRule type="containsText" dxfId="123" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I281">
-    <cfRule type="containsText" dxfId="122" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K281">
-    <cfRule type="containsText" dxfId="121" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M281">
-    <cfRule type="containsText" dxfId="120" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O281">
-    <cfRule type="containsText" dxfId="119" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R281">
-    <cfRule type="containsText" dxfId="118" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U281">
-    <cfRule type="containsText" dxfId="117" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T281 V281">
-    <cfRule type="containsText" dxfId="116" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S281">
-    <cfRule type="containsText" dxfId="115" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="containsText" dxfId="114" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C268">
-    <cfRule type="containsText" dxfId="113" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J268 L268 N268 P268 F268:H268">
-    <cfRule type="containsText" dxfId="112" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E268">
-    <cfRule type="containsText" dxfId="111" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q268">
-    <cfRule type="containsText" dxfId="110" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I268">
-    <cfRule type="containsText" dxfId="109" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K268">
-    <cfRule type="containsText" dxfId="108" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M268">
-    <cfRule type="containsText" dxfId="107" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O268">
-    <cfRule type="containsText" dxfId="106" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R268">
-    <cfRule type="containsText" dxfId="105" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T268 V268">
-    <cfRule type="containsText" dxfId="104" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S268">
-    <cfRule type="containsText" dxfId="103" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D267">
-    <cfRule type="containsText" dxfId="102" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267">
-    <cfRule type="containsText" dxfId="101" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J267 L267 N267 P267 F267:H267">
-    <cfRule type="containsText" dxfId="100" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E267">
-    <cfRule type="containsText" dxfId="99" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q267">
-    <cfRule type="containsText" dxfId="98" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="containsText" dxfId="97" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K267">
-    <cfRule type="containsText" dxfId="96" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M267">
-    <cfRule type="containsText" dxfId="95" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267">
-    <cfRule type="containsText" dxfId="94" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R267">
-    <cfRule type="containsText" dxfId="93" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T267 V267">
-    <cfRule type="containsText" dxfId="92" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S267">
-    <cfRule type="containsText" dxfId="91" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U269">
-    <cfRule type="containsText" dxfId="90" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269">
-    <cfRule type="containsText" dxfId="89" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C269">
-    <cfRule type="containsText" dxfId="88" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J269 L269 N269 P269 F269:H269">
-    <cfRule type="containsText" dxfId="87" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269">
-    <cfRule type="containsText" dxfId="86" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q269">
-    <cfRule type="containsText" dxfId="85" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I269">
-    <cfRule type="containsText" dxfId="84" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K269">
-    <cfRule type="containsText" dxfId="83" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M269">
-    <cfRule type="containsText" dxfId="82" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O269">
-    <cfRule type="containsText" dxfId="81" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R269">
-    <cfRule type="containsText" dxfId="80" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T269 V269">
-    <cfRule type="containsText" dxfId="79" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S269">
-    <cfRule type="containsText" dxfId="78" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270">
-    <cfRule type="containsText" dxfId="77" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270">
-    <cfRule type="containsText" dxfId="76" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J270 L270 N270 P270 F270:H270">
-    <cfRule type="containsText" dxfId="75" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270">
-    <cfRule type="containsText" dxfId="74" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q270">
-    <cfRule type="containsText" dxfId="73" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I270">
-    <cfRule type="containsText" dxfId="72" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K270">
-    <cfRule type="containsText" dxfId="71" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M270">
-    <cfRule type="containsText" dxfId="70" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270">
-    <cfRule type="containsText" dxfId="69" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R270">
-    <cfRule type="containsText" dxfId="68" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270 V270">
-    <cfRule type="containsText" dxfId="67" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S270">
-    <cfRule type="containsText" dxfId="66" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U271">
-    <cfRule type="containsText" dxfId="65" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271">
-    <cfRule type="containsText" dxfId="64" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C271">
-    <cfRule type="containsText" dxfId="63" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J271 L271 N271 P271 F271:H271">
-    <cfRule type="containsText" dxfId="62" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271">
-    <cfRule type="containsText" dxfId="61" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q271">
-    <cfRule type="containsText" dxfId="60" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I271">
-    <cfRule type="containsText" dxfId="59" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K271">
-    <cfRule type="containsText" dxfId="58" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M271">
-    <cfRule type="containsText" dxfId="57" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O271">
-    <cfRule type="containsText" dxfId="56" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R271">
-    <cfRule type="containsText" dxfId="55" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T271 V271">
-    <cfRule type="containsText" dxfId="54" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S271">
-    <cfRule type="containsText" dxfId="53" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U272">
-    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D272">
-    <cfRule type="containsText" dxfId="51" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C272">
-    <cfRule type="containsText" dxfId="50" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J272 L272 N272 P272 F272:H272">
-    <cfRule type="containsText" dxfId="49" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E272">
-    <cfRule type="containsText" dxfId="48" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q272">
-    <cfRule type="containsText" dxfId="47" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I272">
-    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272">
-    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M272">
-    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272">
-    <cfRule type="containsText" dxfId="43" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="containsText" dxfId="42" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T272 V272">
-    <cfRule type="containsText" dxfId="41" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S272">
-    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D282">
-    <cfRule type="containsText" dxfId="39" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C282">
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282:H282">
-    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282">
-    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J282 L282 N282 P282">
-    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q282">
-    <cfRule type="containsText" dxfId="34" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I282">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K282">
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M282">
-    <cfRule type="containsText" dxfId="31" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O282">
-    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R282">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U282">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T282 V282">
-    <cfRule type="containsText" dxfId="27" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S282">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S282)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31416,8 +31286,8 @@
   <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -38442,7 +38312,7 @@
       <c r="A92" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="62" t="s">
         <v>672</v>
       </c>
       <c r="C92" s="50" t="s">
@@ -38519,7 +38389,7 @@
       <c r="A93" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="62" t="s">
         <v>673</v>
       </c>
       <c r="C93" s="53" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53539DAA-CE03-4B67-967D-F17E8D288DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED500D1-C1B1-460A-982B-DDFCE6C4A83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TotaalOverzicht" sheetId="6" r:id="rId1"/>
@@ -6423,7 +6423,7 @@
   <dimension ref="A1:V343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
@@ -31286,8 +31286,8 @@
   <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92:B93"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -35309,7 +35309,7 @@
       <c r="A53" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="54" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="51" t="s">
@@ -35463,7 +35463,7 @@
       <c r="A55" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="51" t="s">

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75091734-F785-45E9-B6DB-5301E8CE8868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD7779-8D52-4669-A909-9D27DB4C3E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9784" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9872" uniqueCount="774">
   <si>
     <t>ID</t>
   </si>
@@ -2390,6 +2390,15 @@
   </si>
   <si>
     <t>Het DoelID van het manifest-ow moet verwijzen naar een bestaand doel dat aanwezig is in de bijbehorende Regeling in OP.</t>
+  </si>
+  <si>
+    <t>Locatie</t>
+  </si>
+  <si>
+    <t>Vrijetekst</t>
+  </si>
+  <si>
+    <t>Regels</t>
   </si>
 </sst>
 </file>
@@ -2709,7 +2718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2878,15 +2887,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2901,7 +2901,27 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="327">
+  <dxfs count="329">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -6498,8 +6518,8 @@
   <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6588,7 +6608,7 @@
       <c r="X1" s="34" t="s">
         <v>691</v>
       </c>
-      <c r="Y1" s="67" t="s">
+      <c r="Y1" s="64" t="s">
         <v>692</v>
       </c>
       <c r="Z1" s="61"/>
@@ -6666,10 +6686,12 @@
       <c r="X2" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="Y2" s="68" t="s">
+      <c r="Y2" s="65" t="s">
         <v>697</v>
       </c>
-      <c r="Z2" s="64"/>
+      <c r="Z2" s="37" t="s">
+        <v>565</v>
+      </c>
       <c r="AA2" s="61"/>
     </row>
     <row r="3" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -6748,7 +6770,9 @@
       <c r="Y3" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z3" s="64"/>
+      <c r="Z3" s="37" t="s">
+        <v>524</v>
+      </c>
       <c r="AA3" s="61"/>
     </row>
     <row r="4" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -6827,7 +6851,9 @@
       <c r="Y4" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z4" s="64"/>
+      <c r="Z4" s="37" t="s">
+        <v>557</v>
+      </c>
       <c r="AA4" s="61"/>
     </row>
     <row r="5" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -6906,7 +6932,9 @@
       <c r="Y5" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z5" s="64"/>
+      <c r="Z5" s="37" t="s">
+        <v>522</v>
+      </c>
       <c r="AA5" s="61"/>
     </row>
     <row r="6" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -6985,7 +7013,9 @@
       <c r="Y6" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z6" s="64"/>
+      <c r="Z6" s="37" t="s">
+        <v>523</v>
+      </c>
       <c r="AA6" s="61"/>
     </row>
     <row r="7" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7064,7 +7094,9 @@
       <c r="Y7" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z7" s="64"/>
+      <c r="Z7" s="37" t="s">
+        <v>525</v>
+      </c>
       <c r="AA7" s="61"/>
     </row>
     <row r="8" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7143,7 +7175,9 @@
       <c r="Y8" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z8" s="64"/>
+      <c r="Z8" s="37" t="s">
+        <v>566</v>
+      </c>
       <c r="AA8" s="61"/>
     </row>
     <row r="9" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
@@ -7222,7 +7256,9 @@
       <c r="Y9" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z9" s="64"/>
+      <c r="Z9" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="AA9" s="61"/>
     </row>
     <row r="10" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7301,7 +7337,9 @@
       <c r="Y10" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z10" s="64"/>
+      <c r="Z10" s="37" t="s">
+        <v>528</v>
+      </c>
       <c r="AA10" s="61"/>
     </row>
     <row r="11" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7380,7 +7418,9 @@
       <c r="Y11" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z11" s="64"/>
+      <c r="Z11" s="37" t="s">
+        <v>529</v>
+      </c>
       <c r="AA11" s="61"/>
     </row>
     <row r="12" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
@@ -7459,7 +7499,9 @@
       <c r="Y12" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z12" s="64"/>
+      <c r="Z12" s="37" t="s">
+        <v>531</v>
+      </c>
       <c r="AA12" s="61"/>
     </row>
     <row r="13" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7538,7 +7580,9 @@
       <c r="Y13" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z13" s="64"/>
+      <c r="Z13" s="37" t="s">
+        <v>558</v>
+      </c>
       <c r="AA13" s="61"/>
     </row>
     <row r="14" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -7617,7 +7661,9 @@
       <c r="Y14" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z14" s="64"/>
+      <c r="Z14" s="37" t="s">
+        <v>532</v>
+      </c>
       <c r="AA14" s="61"/>
     </row>
     <row r="15" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7696,7 +7742,9 @@
       <c r="Y15" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z15" s="64"/>
+      <c r="Z15" s="37" t="s">
+        <v>533</v>
+      </c>
       <c r="AA15" s="61"/>
     </row>
     <row r="16" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7775,7 +7823,9 @@
       <c r="Y16" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z16" s="64"/>
+      <c r="Z16" s="37" t="s">
+        <v>534</v>
+      </c>
       <c r="AA16" s="61"/>
     </row>
     <row r="17" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -7854,7 +7904,9 @@
       <c r="Y17" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z17" s="64"/>
+      <c r="Z17" s="37" t="s">
+        <v>559</v>
+      </c>
       <c r="AA17" s="61"/>
     </row>
     <row r="18" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -7933,7 +7985,9 @@
       <c r="Y18" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z18" s="64"/>
+      <c r="Z18" s="37" t="s">
+        <v>560</v>
+      </c>
       <c r="AA18" s="61"/>
     </row>
     <row r="19" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8012,7 +8066,9 @@
       <c r="Y19" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z19" s="64"/>
+      <c r="Z19" s="37" t="s">
+        <v>536</v>
+      </c>
       <c r="AA19" s="61"/>
     </row>
     <row r="20" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8091,7 +8147,9 @@
       <c r="Y20" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z20" s="64"/>
+      <c r="Z20" s="37" t="s">
+        <v>537</v>
+      </c>
       <c r="AA20" s="61"/>
     </row>
     <row r="21" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8170,7 +8228,9 @@
       <c r="Y21" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z21" s="64"/>
+      <c r="Z21" s="37" t="s">
+        <v>561</v>
+      </c>
       <c r="AA21" s="61"/>
     </row>
     <row r="22" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -8249,7 +8309,9 @@
       <c r="Y22" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z22" s="64"/>
+      <c r="Z22" s="37" t="s">
+        <v>562</v>
+      </c>
       <c r="AA22" s="61"/>
     </row>
     <row r="23" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8328,7 +8390,9 @@
       <c r="Y23" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z23" s="64"/>
+      <c r="Z23" s="37" t="s">
+        <v>539</v>
+      </c>
       <c r="AA23" s="61"/>
     </row>
     <row r="24" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -8407,7 +8471,9 @@
       <c r="Y24" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z24" s="64"/>
+      <c r="Z24" s="37" t="s">
+        <v>540</v>
+      </c>
       <c r="AA24" s="61"/>
     </row>
     <row r="25" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8486,7 +8552,9 @@
       <c r="Y25" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z25" s="64"/>
+      <c r="Z25" s="37" t="s">
+        <v>563</v>
+      </c>
       <c r="AA25" s="61"/>
     </row>
     <row r="26" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -8565,7 +8633,9 @@
       <c r="Y26" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z26" s="64"/>
+      <c r="Z26" s="37" t="s">
+        <v>564</v>
+      </c>
       <c r="AA26" s="61"/>
     </row>
     <row r="27" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8644,7 +8714,9 @@
       <c r="Y27" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z27" s="64"/>
+      <c r="Z27" s="37" t="s">
+        <v>542</v>
+      </c>
       <c r="AA27" s="61"/>
     </row>
     <row r="28" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
@@ -8723,7 +8795,9 @@
       <c r="Y28" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z28" s="64"/>
+      <c r="Z28" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="AA28" s="61"/>
     </row>
     <row r="29" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8802,7 +8876,9 @@
       <c r="Y29" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z29" s="64"/>
+      <c r="Z29" s="37" t="s">
+        <v>544</v>
+      </c>
       <c r="AA29" s="61"/>
     </row>
     <row r="30" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -8881,7 +8957,9 @@
       <c r="Y30" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z30" s="64"/>
+      <c r="Z30" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="AA30" s="61"/>
     </row>
     <row r="31" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -8960,7 +9038,9 @@
       <c r="Y31" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z31" s="64"/>
+      <c r="Z31" s="37" t="s">
+        <v>567</v>
+      </c>
       <c r="AA31" s="61"/>
     </row>
     <row r="32" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -9039,7 +9119,9 @@
       <c r="Y32" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z32" s="64"/>
+      <c r="Z32" s="37" t="s">
+        <v>547</v>
+      </c>
       <c r="AA32" s="61"/>
     </row>
     <row r="33" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -9118,7 +9200,9 @@
       <c r="Y33" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z33" s="64"/>
+      <c r="Z33" s="37" t="s">
+        <v>548</v>
+      </c>
       <c r="AA33" s="61"/>
     </row>
     <row r="34" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -9197,7 +9281,9 @@
       <c r="Y34" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z34" s="64"/>
+      <c r="Z34" s="37" t="s">
+        <v>568</v>
+      </c>
       <c r="AA34" s="61"/>
     </row>
     <row r="35" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -9276,7 +9362,9 @@
       <c r="Y35" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z35" s="64"/>
+      <c r="Z35" s="37" t="s">
+        <v>549</v>
+      </c>
       <c r="AA35" s="61"/>
     </row>
     <row r="36" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -9355,7 +9443,9 @@
       <c r="Y36" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z36" s="64"/>
+      <c r="Z36" s="37" t="s">
+        <v>550</v>
+      </c>
       <c r="AA36" s="61"/>
     </row>
     <row r="37" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -9434,7 +9524,9 @@
       <c r="Y37" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z37" s="64"/>
+      <c r="Z37" s="37" t="s">
+        <v>569</v>
+      </c>
       <c r="AA37" s="61"/>
     </row>
     <row r="38" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -9513,7 +9605,9 @@
       <c r="Y38" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z38" s="64"/>
+      <c r="Z38" s="37" t="s">
+        <v>551</v>
+      </c>
       <c r="AA38" s="61"/>
     </row>
     <row r="39" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -9592,7 +9686,9 @@
       <c r="Y39" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z39" s="64"/>
+      <c r="Z39" s="37" t="s">
+        <v>570</v>
+      </c>
       <c r="AA39" s="61"/>
     </row>
     <row r="40" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -9671,7 +9767,9 @@
       <c r="Y40" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z40" s="64"/>
+      <c r="Z40" s="37" t="s">
+        <v>552</v>
+      </c>
       <c r="AA40" s="61"/>
     </row>
     <row r="41" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -9750,7 +9848,9 @@
       <c r="Y41" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z41" s="64"/>
+      <c r="Z41" s="37" t="s">
+        <v>571</v>
+      </c>
       <c r="AA41" s="61"/>
     </row>
     <row r="42" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -9829,7 +9929,9 @@
       <c r="Y42" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z42" s="64"/>
+      <c r="Z42" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="AA42" s="61"/>
     </row>
     <row r="43" spans="1:27" ht="96.6" x14ac:dyDescent="0.25">
@@ -9908,7 +10010,9 @@
       <c r="Y43" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z43" s="64"/>
+      <c r="Z43" s="37" t="s">
+        <v>515</v>
+      </c>
       <c r="AA43" s="61"/>
     </row>
     <row r="44" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -9987,7 +10091,9 @@
       <c r="Y44" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z44" s="64"/>
+      <c r="Z44" s="37" t="s">
+        <v>516</v>
+      </c>
       <c r="AA44" s="61"/>
     </row>
     <row r="45" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -10066,7 +10172,9 @@
       <c r="Y45" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z45" s="64"/>
+      <c r="Z45" s="37" t="s">
+        <v>573</v>
+      </c>
       <c r="AA45" s="61"/>
     </row>
     <row r="46" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -10145,7 +10253,9 @@
       <c r="Y46" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z46" s="64"/>
+      <c r="Z46" s="37" t="s">
+        <v>99</v>
+      </c>
       <c r="AA46" s="61"/>
     </row>
     <row r="47" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -10224,7 +10334,9 @@
       <c r="Y47" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z47" s="64"/>
+      <c r="Z47" s="37" t="s">
+        <v>101</v>
+      </c>
       <c r="AA47" s="61"/>
     </row>
     <row r="48" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -10303,7 +10415,9 @@
       <c r="Y48" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z48" s="64"/>
+      <c r="Z48" s="37" t="s">
+        <v>103</v>
+      </c>
       <c r="AA48" s="61"/>
     </row>
     <row r="49" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -10382,7 +10496,9 @@
       <c r="Y49" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z49" s="64"/>
+      <c r="Z49" s="37" t="s">
+        <v>113</v>
+      </c>
       <c r="AA49" s="61"/>
     </row>
     <row r="50" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
@@ -10461,7 +10577,9 @@
       <c r="Y50" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z50" s="64"/>
+      <c r="Z50" s="37" t="s">
+        <v>115</v>
+      </c>
       <c r="AA50" s="61"/>
     </row>
     <row r="51" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -10540,7 +10658,9 @@
       <c r="Y51" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z51" s="64"/>
+      <c r="Z51" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="AA51" s="61"/>
     </row>
     <row r="52" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -10619,7 +10739,9 @@
       <c r="Y52" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z52" s="64"/>
+      <c r="Z52" s="37" t="s">
+        <v>11</v>
+      </c>
       <c r="AA52" s="61"/>
     </row>
     <row r="53" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -10698,7 +10820,9 @@
       <c r="Y53" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z53" s="64"/>
+      <c r="Z53" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="AA53" s="61"/>
     </row>
     <row r="54" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -10777,7 +10901,9 @@
       <c r="Y54" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z54" s="64"/>
+      <c r="Z54" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="AA54" s="61"/>
     </row>
     <row r="55" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -10856,7 +10982,9 @@
       <c r="Y55" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z55" s="64"/>
+      <c r="Z55" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="AA55" s="61"/>
     </row>
     <row r="56" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -10935,7 +11063,9 @@
       <c r="Y56" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z56" s="65"/>
+      <c r="Z56" s="49" t="s">
+        <v>24</v>
+      </c>
       <c r="AA56" s="61"/>
     </row>
     <row r="57" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -11014,7 +11144,9 @@
       <c r="Y57" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z57" s="65"/>
+      <c r="Z57" s="49" t="s">
+        <v>26</v>
+      </c>
       <c r="AA57" s="61"/>
     </row>
     <row r="58" spans="1:27" ht="41.4" x14ac:dyDescent="0.25">
@@ -11093,7 +11225,9 @@
       <c r="Y58" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z58" s="64"/>
+      <c r="Z58" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="AA58" s="61"/>
     </row>
     <row r="59" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -11172,7 +11306,9 @@
       <c r="Y59" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z59" s="64"/>
+      <c r="Z59" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="AA59" s="61"/>
     </row>
     <row r="60" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -11251,7 +11387,9 @@
       <c r="Y60" s="43" t="s">
         <v>697</v>
       </c>
-      <c r="Z60" s="64"/>
+      <c r="Z60" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="AA60" s="61"/>
     </row>
     <row r="61" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -11330,7 +11468,9 @@
       <c r="Y61" s="45" t="s">
         <v>640</v>
       </c>
-      <c r="Z61" s="64"/>
+      <c r="Z61" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="AA61" s="61"/>
     </row>
     <row r="62" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -11409,7 +11549,9 @@
       <c r="Y62" s="45" t="s">
         <v>640</v>
       </c>
-      <c r="Z62" s="64"/>
+      <c r="Z62" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="AA62" s="61"/>
     </row>
     <row r="63" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -11488,7 +11630,9 @@
       <c r="Y63" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="Z63" s="64"/>
+      <c r="Z63" s="37" t="s">
+        <v>121</v>
+      </c>
       <c r="AA63" s="61"/>
     </row>
     <row r="64" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
@@ -11567,7 +11711,9 @@
       <c r="Y64" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z64" s="66"/>
+      <c r="Z64" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="AA64" s="61"/>
     </row>
     <row r="65" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
@@ -11587,7 +11733,7 @@
         <v>694</v>
       </c>
       <c r="F65" s="47" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G65" s="39" t="s">
         <v>124</v>
@@ -11646,7 +11792,9 @@
       <c r="Y65" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z65" s="66"/>
+      <c r="Z65" s="38" t="s">
+        <v>132</v>
+      </c>
       <c r="AA65" s="61"/>
     </row>
     <row r="66" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
@@ -11666,7 +11814,7 @@
         <v>694</v>
       </c>
       <c r="F66" s="46" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G66" s="39" t="s">
         <v>124</v>
@@ -11725,7 +11873,9 @@
       <c r="Y66" s="45" t="s">
         <v>640</v>
       </c>
-      <c r="Z66" s="64"/>
+      <c r="Z66" s="37" t="s">
+        <v>137</v>
+      </c>
       <c r="AA66" s="61"/>
     </row>
     <row r="67" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
@@ -11804,7 +11954,9 @@
       <c r="Y67" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z67" s="66"/>
+      <c r="Z67" s="38" t="s">
+        <v>143</v>
+      </c>
       <c r="AA67" s="61"/>
     </row>
     <row r="68" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
@@ -11883,7 +12035,9 @@
       <c r="Y68" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z68" s="66"/>
+      <c r="Z68" s="38" t="s">
+        <v>404</v>
+      </c>
       <c r="AA68" s="61"/>
     </row>
     <row r="69" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
@@ -11903,7 +12057,7 @@
         <v>694</v>
       </c>
       <c r="F69" s="38" t="s">
-        <v>126</v>
+        <v>768</v>
       </c>
       <c r="G69" s="39" t="s">
         <v>124</v>
@@ -11962,7 +12116,9 @@
       <c r="Y69" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z69" s="66"/>
+      <c r="Z69" s="38" t="s">
+        <v>405</v>
+      </c>
       <c r="AA69" s="61"/>
     </row>
     <row r="70" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
@@ -11982,7 +12138,7 @@
         <v>694</v>
       </c>
       <c r="F70" s="38" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="G70" s="39" t="s">
         <v>124</v>
@@ -12041,7 +12197,9 @@
       <c r="Y70" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z70" s="66"/>
+      <c r="Z70" s="38" t="s">
+        <v>406</v>
+      </c>
       <c r="AA70" s="61"/>
     </row>
     <row r="71" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
@@ -12061,7 +12219,7 @@
         <v>694</v>
       </c>
       <c r="F71" s="38" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="G71" s="39" t="s">
         <v>124</v>
@@ -12120,7 +12278,9 @@
       <c r="Y71" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z71" s="66"/>
+      <c r="Z71" s="38" t="s">
+        <v>407</v>
+      </c>
       <c r="AA71" s="61"/>
     </row>
     <row r="72" spans="1:27" ht="13.8" x14ac:dyDescent="0.3">
@@ -12140,7 +12300,7 @@
         <v>694</v>
       </c>
       <c r="F72" s="38" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="G72" s="39" t="s">
         <v>124</v>
@@ -12199,7 +12359,9 @@
       <c r="Y72" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z72" s="66"/>
+      <c r="Z72" s="38" t="s">
+        <v>408</v>
+      </c>
       <c r="AA72" s="61"/>
     </row>
     <row r="73" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -12219,7 +12381,7 @@
         <v>694</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="G73" s="39" t="s">
         <v>124</v>
@@ -12278,7 +12440,9 @@
       <c r="Y73" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z73" s="64"/>
+      <c r="Z73" s="37" t="s">
+        <v>631</v>
+      </c>
       <c r="AA73" s="61"/>
     </row>
     <row r="74" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -12298,7 +12462,7 @@
         <v>694</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="G74" s="39" t="s">
         <v>124</v>
@@ -12357,7 +12521,9 @@
       <c r="Y74" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z74" s="64"/>
+      <c r="Z74" s="37" t="s">
+        <v>633</v>
+      </c>
       <c r="AA74" s="61"/>
     </row>
     <row r="75" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -12377,7 +12543,7 @@
         <v>694</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="G75" s="39" t="s">
         <v>124</v>
@@ -12436,7 +12602,9 @@
       <c r="Y75" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z75" s="64"/>
+      <c r="Z75" s="37" t="s">
+        <v>635</v>
+      </c>
       <c r="AA75" s="61"/>
     </row>
     <row r="76" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -12515,7 +12683,9 @@
       <c r="Y76" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z76" s="64"/>
+      <c r="Z76" s="37" t="s">
+        <v>637</v>
+      </c>
       <c r="AA76" s="61"/>
     </row>
     <row r="77" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -12535,7 +12705,7 @@
         <v>707</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G77" s="39" t="s">
         <v>124</v>
@@ -12594,7 +12764,9 @@
       <c r="Y77" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z77" s="62"/>
+      <c r="Z77" s="50" t="s">
+        <v>663</v>
+      </c>
       <c r="AA77" s="61"/>
     </row>
     <row r="78" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -12673,7 +12845,9 @@
       <c r="Y78" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z78" s="62"/>
+      <c r="Z78" s="50" t="s">
+        <v>659</v>
+      </c>
       <c r="AA78" s="61"/>
     </row>
     <row r="79" spans="1:27" ht="27.6" x14ac:dyDescent="0.25">
@@ -12752,7 +12926,9 @@
       <c r="Y79" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z79" s="62"/>
+      <c r="Z79" s="50" t="s">
+        <v>660</v>
+      </c>
       <c r="AA79" s="61"/>
     </row>
     <row r="80" spans="1:27" ht="13.8" x14ac:dyDescent="0.25">
@@ -12772,7 +12948,7 @@
         <v>707</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>126</v>
+        <v>772</v>
       </c>
       <c r="G80" s="39" t="s">
         <v>124</v>
@@ -12831,7 +13007,9 @@
       <c r="Y80" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z80" s="62"/>
+      <c r="Z80" s="50" t="s">
+        <v>661</v>
+      </c>
       <c r="AA80" s="61"/>
     </row>
     <row r="81" spans="1:28" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -12851,7 +13029,7 @@
         <v>694</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>126</v>
+        <v>768</v>
       </c>
       <c r="G81" s="39" t="s">
         <v>124</v>
@@ -12910,7 +13088,9 @@
       <c r="Y81" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z81" s="62"/>
+      <c r="Z81" s="50" t="s">
+        <v>662</v>
+      </c>
       <c r="AA81" s="61"/>
     </row>
     <row r="82" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
@@ -12930,7 +13110,7 @@
         <v>707</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G82" s="39" t="s">
         <v>124</v>
@@ -12989,7 +13169,9 @@
       <c r="Y82" s="45" t="s">
         <v>641</v>
       </c>
-      <c r="Z82" s="62"/>
+      <c r="Z82" s="50" t="s">
+        <v>664</v>
+      </c>
       <c r="AA82" s="61"/>
     </row>
     <row r="83" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
@@ -13009,7 +13191,7 @@
         <v>694</v>
       </c>
       <c r="F83" s="38" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G83" s="39" t="s">
         <v>124</v>
@@ -13068,7 +13250,9 @@
       <c r="Y83" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z83" s="62"/>
+      <c r="Z83" s="50" t="s">
+        <v>665</v>
+      </c>
       <c r="AA83" s="61"/>
     </row>
     <row r="84" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -13088,7 +13272,7 @@
         <v>707</v>
       </c>
       <c r="F84" s="38" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G84" s="39" t="s">
         <v>124</v>
@@ -13147,7 +13331,9 @@
       <c r="Y84" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z84" s="62"/>
+      <c r="Z84" s="50" t="s">
+        <v>666</v>
+      </c>
       <c r="AA84" s="61"/>
     </row>
     <row r="85" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
@@ -13167,7 +13353,7 @@
         <v>707</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G85" s="39" t="s">
         <v>124</v>
@@ -13226,7 +13412,9 @@
       <c r="Y85" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z85" s="62"/>
+      <c r="Z85" s="50" t="s">
+        <v>668</v>
+      </c>
       <c r="AA85" s="61"/>
     </row>
     <row r="86" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
@@ -13246,7 +13434,7 @@
         <v>707</v>
       </c>
       <c r="F86" s="38" t="s">
-        <v>126</v>
+        <v>773</v>
       </c>
       <c r="G86" s="39" t="s">
         <v>124</v>
@@ -13305,7 +13493,9 @@
       <c r="Y86" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z86" s="62"/>
+      <c r="Z86" s="50" t="s">
+        <v>670</v>
+      </c>
       <c r="AA86" s="61"/>
     </row>
     <row r="87" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
@@ -13325,7 +13515,7 @@
         <v>707</v>
       </c>
       <c r="F87" s="38" t="s">
-        <v>126</v>
+        <v>772</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>124</v>
@@ -13384,7 +13574,9 @@
       <c r="Y87" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z87" s="62"/>
+      <c r="Z87" s="50" t="s">
+        <v>671</v>
+      </c>
       <c r="AA87" s="61"/>
     </row>
     <row r="88" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
@@ -13463,7 +13655,9 @@
       <c r="Y88" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z88" s="62"/>
+      <c r="Z88" s="50" t="s">
+        <v>672</v>
+      </c>
       <c r="AA88" s="61"/>
     </row>
     <row r="89" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
@@ -13483,7 +13677,7 @@
         <v>707</v>
       </c>
       <c r="F89" s="38" t="s">
-        <v>126</v>
+        <v>771</v>
       </c>
       <c r="G89" s="39" t="s">
         <v>140</v>
@@ -13542,14 +13736,16 @@
       <c r="Y89" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="Z89" s="62"/>
+      <c r="Z89" s="50" t="s">
+        <v>673</v>
+      </c>
       <c r="AA89" s="61"/>
     </row>
     <row r="90" spans="1:28" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="B90" s="69" t="s">
+      <c r="B90" s="66" t="s">
         <v>766</v>
       </c>
       <c r="C90" s="50" t="s">
@@ -13628,7 +13824,7 @@
       <c r="A91" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="B91" s="69" t="s">
+      <c r="B91" s="66" t="s">
         <v>767</v>
       </c>
       <c r="C91" s="50" t="s">
@@ -13880,77 +14076,77 @@
   </sheetData>
   <autoFilter ref="A1:Y91" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>
   <conditionalFormatting sqref="M63 O63 Q63 S63 U63 W63 Y63 B2:Y49 A2:A91">
-    <cfRule type="containsText" dxfId="326" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="328" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63">
-    <cfRule type="containsText" dxfId="325" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="327" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="324" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="326" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:K64">
-    <cfRule type="containsText" dxfId="323" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="325" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y1">
-    <cfRule type="containsText" dxfId="322" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="324" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R63">
-    <cfRule type="containsText" dxfId="321" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="323" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T63">
-    <cfRule type="containsText" dxfId="320" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="322" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V63">
-    <cfRule type="containsText" dxfId="319" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="321" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",V63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X63">
-    <cfRule type="containsText" dxfId="318" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="320" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",X63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="containsText" dxfId="317" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="319" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="316" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="318" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="containsText" dxfId="315" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="317" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="314" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="316" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z49">
-    <cfRule type="containsText" dxfId="313" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z64">
-    <cfRule type="containsText" dxfId="312" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z64)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37232,1562 +37428,1562 @@
   </sheetData>
   <autoFilter ref="A1:V343" xr:uid="{C54AF10E-E059-4F84-9C3A-10A5CBE61918}"/>
   <conditionalFormatting sqref="C180:H208 D209:D263 E209:E261 C209:C249 F209:H262 G283:H302 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J180:J262 L180:L262 L152 N152 N180:N262 P180:P262 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152 P283:P302 N283:N302 L283:L302 J283:J302">
-    <cfRule type="containsText" dxfId="311" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="313" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="310" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="312" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="309" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="311" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="308" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="310" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283:C302">
-    <cfRule type="containsText" dxfId="307" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="309" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:F302">
-    <cfRule type="containsText" dxfId="306" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="308" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C262:C263 E262">
-    <cfRule type="containsText" dxfId="305" priority="334" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="307" priority="334" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="304" priority="346" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="306" priority="346" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="containsText" dxfId="303" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="305" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="302" priority="344" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="304" priority="344" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="containsText" dxfId="301" priority="343" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="303" priority="343" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="containsText" dxfId="300" priority="342" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="302" priority="342" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="containsText" dxfId="299" priority="341" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="301" priority="341" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="containsText" dxfId="298" priority="340" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="300" priority="340" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C257">
-    <cfRule type="containsText" dxfId="297" priority="339" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="299" priority="339" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C258">
-    <cfRule type="containsText" dxfId="296" priority="338" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="298" priority="338" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C259">
-    <cfRule type="containsText" dxfId="295" priority="337" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="297" priority="337" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="containsText" dxfId="294" priority="336" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="296" priority="336" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C261">
-    <cfRule type="containsText" dxfId="293" priority="335" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="295" priority="335" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="292" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="294" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="291" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="293" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="290" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="292" priority="325" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="289" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="291" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="288" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="290" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="287" priority="301" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="289" priority="301" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="286" priority="300" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="288" priority="300" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="285" priority="297" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="287" priority="297" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="284" priority="296" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="286" priority="296" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="283" priority="295" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="285" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="282" priority="294" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="284" priority="294" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q180:Q262 Q283:Q302">
-    <cfRule type="containsText" dxfId="281" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="283" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I180:I262 I283:I302">
-    <cfRule type="containsText" dxfId="280" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="282" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="279" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="281" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="278" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="280" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K180:K262 K152 K283:K302">
-    <cfRule type="containsText" dxfId="277" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="279" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="276" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="278" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="275" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="277" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M180:M262 M283:M302">
-    <cfRule type="containsText" dxfId="274" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="276" priority="308" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="273" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="275" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="272" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="274" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O180:O262 O152 O59:O126 O2:O48 O283:O302">
-    <cfRule type="containsText" dxfId="271" priority="305" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="273" priority="305" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="270" priority="304" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="272" priority="304" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="269" priority="303" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="271" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="268" priority="299" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="270" priority="299" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="267" priority="298" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="269" priority="298" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180:V261 T180:T261 T283:T302 V283:V302">
-    <cfRule type="containsText" dxfId="266" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="268" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U180:U261 U283:U302">
-    <cfRule type="containsText" dxfId="265" priority="292" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="267" priority="292" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:S261 S283:S302">
-    <cfRule type="containsText" dxfId="264" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="266" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R180:R262 R283:R302">
-    <cfRule type="containsText" dxfId="263" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="265" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263:H263 J263 L263 N263 P263">
-    <cfRule type="containsText" dxfId="262" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="264" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="containsText" dxfId="261" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="263" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q263">
-    <cfRule type="containsText" dxfId="260" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="262" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I263">
-    <cfRule type="containsText" dxfId="259" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="261" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K263">
-    <cfRule type="containsText" dxfId="258" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="260" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M263">
-    <cfRule type="containsText" dxfId="257" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="259" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263">
-    <cfRule type="containsText" dxfId="256" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="258" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="containsText" dxfId="255" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="257" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="containsText" dxfId="254" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O264">
-    <cfRule type="containsText" dxfId="253" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R263">
-    <cfRule type="containsText" dxfId="252" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264:D266 D273">
-    <cfRule type="containsText" dxfId="251" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C266 C273">
-    <cfRule type="containsText" dxfId="250" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264:H264 J264 L264 N264 P264">
-    <cfRule type="containsText" dxfId="249" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264">
-    <cfRule type="containsText" dxfId="248" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q264">
-    <cfRule type="containsText" dxfId="247" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="265" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264">
-    <cfRule type="containsText" dxfId="246" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V264 T264">
-    <cfRule type="containsText" dxfId="245" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U264">
-    <cfRule type="containsText" dxfId="244" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S264">
-    <cfRule type="containsText" dxfId="243" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R264">
-    <cfRule type="containsText" dxfId="242" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S262">
-    <cfRule type="containsText" dxfId="241" priority="255" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="255" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U262">
-    <cfRule type="containsText" dxfId="240" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U263">
-    <cfRule type="containsText" dxfId="239" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T263 V263">
-    <cfRule type="containsText" dxfId="238" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T262 V262">
-    <cfRule type="containsText" dxfId="237" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S263">
-    <cfRule type="containsText" dxfId="236" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:H265 J265 L265 N265 P265">
-    <cfRule type="containsText" dxfId="235" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="containsText" dxfId="234" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q265">
-    <cfRule type="containsText" dxfId="233" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="containsText" dxfId="232" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="containsText" dxfId="231" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="containsText" dxfId="230" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O265">
-    <cfRule type="containsText" dxfId="229" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R265">
-    <cfRule type="containsText" dxfId="228" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U265">
-    <cfRule type="containsText" dxfId="227" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T265 V265">
-    <cfRule type="containsText" dxfId="226" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S265">
-    <cfRule type="containsText" dxfId="225" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266 L266 N266 P266 F266:H266 F273:H273">
-    <cfRule type="containsText" dxfId="224" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E266 E273">
-    <cfRule type="containsText" dxfId="223" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q266">
-    <cfRule type="containsText" dxfId="222" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="containsText" dxfId="221" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266">
-    <cfRule type="containsText" dxfId="220" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266">
-    <cfRule type="containsText" dxfId="219" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O266">
-    <cfRule type="containsText" dxfId="218" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R266">
-    <cfRule type="containsText" dxfId="217" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U266">
-    <cfRule type="containsText" dxfId="216" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T266 V266">
-    <cfRule type="containsText" dxfId="215" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S266">
-    <cfRule type="containsText" dxfId="214" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J273 L273 N273 P273">
-    <cfRule type="containsText" dxfId="213" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q273">
-    <cfRule type="containsText" dxfId="212" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I273">
-    <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K273">
-    <cfRule type="containsText" dxfId="210" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M273">
-    <cfRule type="containsText" dxfId="209" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O273">
-    <cfRule type="containsText" dxfId="208" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R273">
-    <cfRule type="containsText" dxfId="207" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U273">
-    <cfRule type="containsText" dxfId="206" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T273 V273">
-    <cfRule type="containsText" dxfId="205" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S273">
-    <cfRule type="containsText" dxfId="204" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D274">
-    <cfRule type="containsText" dxfId="203" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="containsText" dxfId="202" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274:H274">
-    <cfRule type="containsText" dxfId="201" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274">
-    <cfRule type="containsText" dxfId="200" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J274 L274 N274 P274">
-    <cfRule type="containsText" dxfId="199" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q274">
-    <cfRule type="containsText" dxfId="198" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I274">
-    <cfRule type="containsText" dxfId="197" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274">
-    <cfRule type="containsText" dxfId="196" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M274">
-    <cfRule type="containsText" dxfId="195" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O274">
-    <cfRule type="containsText" dxfId="194" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274">
-    <cfRule type="containsText" dxfId="193" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U274">
-    <cfRule type="containsText" dxfId="192" priority="205" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="205" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T274 V274">
-    <cfRule type="containsText" dxfId="191" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S274">
-    <cfRule type="containsText" dxfId="190" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D275">
-    <cfRule type="containsText" dxfId="189" priority="204" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="204" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="containsText" dxfId="188" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:H275">
-    <cfRule type="containsText" dxfId="187" priority="202" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="202" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E275">
-    <cfRule type="containsText" dxfId="186" priority="201" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="201" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J275 L275 N275 P275">
-    <cfRule type="containsText" dxfId="185" priority="200" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="200" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q275">
-    <cfRule type="containsText" dxfId="184" priority="194" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="194" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I275">
-    <cfRule type="containsText" dxfId="183" priority="199" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="199" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K275">
-    <cfRule type="containsText" dxfId="182" priority="198" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="198" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M275">
-    <cfRule type="containsText" dxfId="181" priority="197" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O275">
-    <cfRule type="containsText" dxfId="180" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275">
-    <cfRule type="containsText" dxfId="179" priority="195" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="195" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U275">
-    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T275 V275">
-    <cfRule type="containsText" dxfId="177" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S275">
-    <cfRule type="containsText" dxfId="176" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D276">
-    <cfRule type="containsText" dxfId="175" priority="190" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="190" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C276">
-    <cfRule type="containsText" dxfId="174" priority="189" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="189" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F276:H276">
-    <cfRule type="containsText" dxfId="173" priority="188" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="188" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E276">
-    <cfRule type="containsText" dxfId="172" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J276 L276 N276 P276">
-    <cfRule type="containsText" dxfId="171" priority="186" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="186" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q276">
-    <cfRule type="containsText" dxfId="170" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I276">
-    <cfRule type="containsText" dxfId="169" priority="185" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K276">
-    <cfRule type="containsText" dxfId="168" priority="184" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M276">
-    <cfRule type="containsText" dxfId="167" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O276">
-    <cfRule type="containsText" dxfId="166" priority="182" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R276">
-    <cfRule type="containsText" dxfId="165" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U276">
-    <cfRule type="containsText" dxfId="164" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T276 V276">
-    <cfRule type="containsText" dxfId="163" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S276">
-    <cfRule type="containsText" dxfId="162" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D277">
-    <cfRule type="containsText" dxfId="161" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C277">
-    <cfRule type="containsText" dxfId="160" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277:H277">
-    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E277">
-    <cfRule type="containsText" dxfId="158" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J277 L277 N277 P277">
-    <cfRule type="containsText" dxfId="157" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="containsText" dxfId="156" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I277">
-    <cfRule type="containsText" dxfId="155" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K277">
-    <cfRule type="containsText" dxfId="154" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M277">
-    <cfRule type="containsText" dxfId="153" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277">
-    <cfRule type="containsText" dxfId="152" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R277">
-    <cfRule type="containsText" dxfId="151" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U277">
-    <cfRule type="containsText" dxfId="150" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T277 V277">
-    <cfRule type="containsText" dxfId="149" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S277">
-    <cfRule type="containsText" dxfId="148" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U268">
-    <cfRule type="containsText" dxfId="147" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U267">
-    <cfRule type="containsText" dxfId="146" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U270">
-    <cfRule type="containsText" dxfId="145" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278">
-    <cfRule type="containsText" dxfId="144" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C278">
-    <cfRule type="containsText" dxfId="143" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F278:H278">
-    <cfRule type="containsText" dxfId="142" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278">
-    <cfRule type="containsText" dxfId="141" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J278 L278 N278 P278">
-    <cfRule type="containsText" dxfId="140" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q278">
-    <cfRule type="containsText" dxfId="139" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I278">
-    <cfRule type="containsText" dxfId="138" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K278">
-    <cfRule type="containsText" dxfId="137" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M278">
-    <cfRule type="containsText" dxfId="136" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O278">
-    <cfRule type="containsText" dxfId="135" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R278">
-    <cfRule type="containsText" dxfId="134" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U278">
-    <cfRule type="containsText" dxfId="133" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T278 V278">
-    <cfRule type="containsText" dxfId="132" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S278">
-    <cfRule type="containsText" dxfId="131" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="containsText" dxfId="130" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C279">
-    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279:H279">
-    <cfRule type="containsText" dxfId="128" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E279">
-    <cfRule type="containsText" dxfId="127" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J279 L279 N279 P279">
-    <cfRule type="containsText" dxfId="126" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q279">
-    <cfRule type="containsText" dxfId="125" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I279">
-    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K279">
-    <cfRule type="containsText" dxfId="123" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M279">
-    <cfRule type="containsText" dxfId="122" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O279">
-    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R279">
-    <cfRule type="containsText" dxfId="120" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U279">
-    <cfRule type="containsText" dxfId="119" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T279 V279">
-    <cfRule type="containsText" dxfId="118" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S279">
-    <cfRule type="containsText" dxfId="117" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D280">
-    <cfRule type="containsText" dxfId="116" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280">
-    <cfRule type="containsText" dxfId="115" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F280:H280">
-    <cfRule type="containsText" dxfId="114" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E280">
-    <cfRule type="containsText" dxfId="113" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J280 L280 N280 P280">
-    <cfRule type="containsText" dxfId="112" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q280">
-    <cfRule type="containsText" dxfId="111" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I280">
-    <cfRule type="containsText" dxfId="110" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280">
-    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M280">
-    <cfRule type="containsText" dxfId="108" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O280">
-    <cfRule type="containsText" dxfId="107" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R280">
-    <cfRule type="containsText" dxfId="106" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U280">
-    <cfRule type="containsText" dxfId="105" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T280 V280">
-    <cfRule type="containsText" dxfId="104" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S280">
-    <cfRule type="containsText" dxfId="103" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C281">
-    <cfRule type="containsText" dxfId="101" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F281:H281">
-    <cfRule type="containsText" dxfId="100" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281">
-    <cfRule type="containsText" dxfId="99" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J281 L281 N281 P281">
-    <cfRule type="containsText" dxfId="98" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q281">
-    <cfRule type="containsText" dxfId="97" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I281">
-    <cfRule type="containsText" dxfId="96" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K281">
-    <cfRule type="containsText" dxfId="95" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M281">
-    <cfRule type="containsText" dxfId="94" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O281">
-    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R281">
-    <cfRule type="containsText" dxfId="92" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U281">
-    <cfRule type="containsText" dxfId="91" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T281 V281">
-    <cfRule type="containsText" dxfId="90" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S281">
-    <cfRule type="containsText" dxfId="89" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="containsText" dxfId="88" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C268">
-    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J268 L268 N268 P268 F268:H268">
-    <cfRule type="containsText" dxfId="86" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E268">
-    <cfRule type="containsText" dxfId="85" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q268">
-    <cfRule type="containsText" dxfId="84" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I268">
-    <cfRule type="containsText" dxfId="83" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K268">
-    <cfRule type="containsText" dxfId="82" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M268">
-    <cfRule type="containsText" dxfId="81" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O268">
-    <cfRule type="containsText" dxfId="80" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R268">
-    <cfRule type="containsText" dxfId="79" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T268 V268">
-    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S268">
-    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D267">
-    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267">
-    <cfRule type="containsText" dxfId="75" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J267 L267 N267 P267 F267:H267">
-    <cfRule type="containsText" dxfId="74" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E267">
-    <cfRule type="containsText" dxfId="73" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q267">
-    <cfRule type="containsText" dxfId="72" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="containsText" dxfId="71" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K267">
-    <cfRule type="containsText" dxfId="70" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M267">
-    <cfRule type="containsText" dxfId="69" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267">
-    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R267">
-    <cfRule type="containsText" dxfId="67" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T267 V267">
-    <cfRule type="containsText" dxfId="66" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S267">
-    <cfRule type="containsText" dxfId="65" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U269">
-    <cfRule type="containsText" dxfId="64" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269">
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C269">
-    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J269 L269 N269 P269 F269:H269">
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269">
-    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q269">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I269">
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K269">
-    <cfRule type="containsText" dxfId="57" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M269">
-    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O269">
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R269">
-    <cfRule type="containsText" dxfId="54" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T269 V269">
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S269">
-    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270">
-    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270">
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J270 L270 N270 P270 F270:H270">
-    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270">
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q270">
-    <cfRule type="containsText" dxfId="47" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I270">
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K270">
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M270">
-    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270">
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R270">
-    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270 V270">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S270">
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U271">
-    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C271">
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J271 L271 N271 P271 F271:H271">
-    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271">
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q271">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I271">
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K271">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M271">
-    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O271">
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R271">
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T271 V271">
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S271">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U272">
-    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D272">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C272">
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J272 L272 N272 P272 F272:H272">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E272">
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q272">
-    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I272">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272">
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M272">
-    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T272 V272">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S272">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D282">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C282">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282:H282">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J282 L282 N282 P282">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q282">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I282">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K282">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M282">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O282">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R282">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U282">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T282 V282">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S282">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S282)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD7779-8D52-4669-A909-9D27DB4C3E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0F4ACA-6B4B-42AA-B5FC-9D5497BE32A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="18552" windowHeight="11028" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TPOD" sheetId="12" r:id="rId1"/>
@@ -2901,27 +2901,7 @@
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="329">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="327">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -6517,9 +6497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796636CA-F9C3-46BC-98AE-E8485AAD557E}">
   <dimension ref="A1:AB120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14076,77 +14056,77 @@
   </sheetData>
   <autoFilter ref="A1:Y91" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>
   <conditionalFormatting sqref="M63 O63 Q63 S63 U63 W63 Y63 B2:Y49 A2:A91">
-    <cfRule type="containsText" dxfId="328" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="326" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63">
-    <cfRule type="containsText" dxfId="327" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="325" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="326" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="324" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:K64">
-    <cfRule type="containsText" dxfId="325" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="323" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y1">
-    <cfRule type="containsText" dxfId="324" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="322" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R63">
-    <cfRule type="containsText" dxfId="323" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="321" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T63">
-    <cfRule type="containsText" dxfId="322" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="320" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V63">
-    <cfRule type="containsText" dxfId="321" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="319" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",V63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X63">
-    <cfRule type="containsText" dxfId="320" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="318" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",X63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="containsText" dxfId="319" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="317" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="318" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="316" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="containsText" dxfId="317" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="315" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="316" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="314" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z49">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="313" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z64">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="312" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z64)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37428,1562 +37408,1562 @@
   </sheetData>
   <autoFilter ref="A1:V343" xr:uid="{C54AF10E-E059-4F84-9C3A-10A5CBE61918}"/>
   <conditionalFormatting sqref="C180:H208 D209:D263 E209:E261 C209:C249 F209:H262 G283:H302 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J180:J262 L180:L262 L152 N152 N180:N262 P180:P262 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152 P283:P302 N283:N302 L283:L302 J283:J302">
-    <cfRule type="containsText" dxfId="313" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="311" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="312" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="310" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="311" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="309" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="310" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="308" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283:C302">
-    <cfRule type="containsText" dxfId="309" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="307" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:F302">
-    <cfRule type="containsText" dxfId="308" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="306" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C262:C263 E262">
-    <cfRule type="containsText" dxfId="307" priority="334" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="305" priority="334" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="306" priority="346" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="304" priority="346" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="containsText" dxfId="305" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="303" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="304" priority="344" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="302" priority="344" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="containsText" dxfId="303" priority="343" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="301" priority="343" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="containsText" dxfId="302" priority="342" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="300" priority="342" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="containsText" dxfId="301" priority="341" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="299" priority="341" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="containsText" dxfId="300" priority="340" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="298" priority="340" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C257">
-    <cfRule type="containsText" dxfId="299" priority="339" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="297" priority="339" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C258">
-    <cfRule type="containsText" dxfId="298" priority="338" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="296" priority="338" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C259">
-    <cfRule type="containsText" dxfId="297" priority="337" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="295" priority="337" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="containsText" dxfId="296" priority="336" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="294" priority="336" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C261">
-    <cfRule type="containsText" dxfId="295" priority="335" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="293" priority="335" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="294" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="292" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="293" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="291" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="292" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="290" priority="325" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="291" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="289" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="290" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="288" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="289" priority="301" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="287" priority="301" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="288" priority="300" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="286" priority="300" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="287" priority="297" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="285" priority="297" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="286" priority="296" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="284" priority="296" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="285" priority="295" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="283" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="284" priority="294" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="282" priority="294" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q180:Q262 Q283:Q302">
-    <cfRule type="containsText" dxfId="283" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="281" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I180:I262 I283:I302">
-    <cfRule type="containsText" dxfId="282" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="280" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="281" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="279" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="280" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="278" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K180:K262 K152 K283:K302">
-    <cfRule type="containsText" dxfId="279" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="277" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="278" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="276" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="277" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="275" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M180:M262 M283:M302">
-    <cfRule type="containsText" dxfId="276" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="274" priority="308" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="275" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="273" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="274" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="272" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O180:O262 O152 O59:O126 O2:O48 O283:O302">
-    <cfRule type="containsText" dxfId="273" priority="305" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="271" priority="305" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="272" priority="304" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="270" priority="304" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="271" priority="303" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="269" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="270" priority="299" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="268" priority="299" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="269" priority="298" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="267" priority="298" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180:V261 T180:T261 T283:T302 V283:V302">
-    <cfRule type="containsText" dxfId="268" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="266" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U180:U261 U283:U302">
-    <cfRule type="containsText" dxfId="267" priority="292" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="265" priority="292" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:S261 S283:S302">
-    <cfRule type="containsText" dxfId="266" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="264" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R180:R262 R283:R302">
-    <cfRule type="containsText" dxfId="265" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="263" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263:H263 J263 L263 N263 P263">
-    <cfRule type="containsText" dxfId="264" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="262" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="containsText" dxfId="263" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="261" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q263">
-    <cfRule type="containsText" dxfId="262" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="260" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I263">
-    <cfRule type="containsText" dxfId="261" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="259" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K263">
-    <cfRule type="containsText" dxfId="260" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="258" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M263">
-    <cfRule type="containsText" dxfId="259" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="257" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263">
-    <cfRule type="containsText" dxfId="258" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="containsText" dxfId="257" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="containsText" dxfId="256" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O264">
-    <cfRule type="containsText" dxfId="255" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R263">
-    <cfRule type="containsText" dxfId="254" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264:D266 D273">
-    <cfRule type="containsText" dxfId="253" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C266 C273">
-    <cfRule type="containsText" dxfId="252" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264:H264 J264 L264 N264 P264">
-    <cfRule type="containsText" dxfId="251" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264">
-    <cfRule type="containsText" dxfId="250" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q264">
-    <cfRule type="containsText" dxfId="249" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="265" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264">
-    <cfRule type="containsText" dxfId="248" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V264 T264">
-    <cfRule type="containsText" dxfId="247" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U264">
-    <cfRule type="containsText" dxfId="246" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S264">
-    <cfRule type="containsText" dxfId="245" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R264">
-    <cfRule type="containsText" dxfId="244" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S262">
-    <cfRule type="containsText" dxfId="243" priority="255" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="255" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U262">
-    <cfRule type="containsText" dxfId="242" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U263">
-    <cfRule type="containsText" dxfId="241" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T263 V263">
-    <cfRule type="containsText" dxfId="240" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T262 V262">
-    <cfRule type="containsText" dxfId="239" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S263">
-    <cfRule type="containsText" dxfId="238" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:H265 J265 L265 N265 P265">
-    <cfRule type="containsText" dxfId="237" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="containsText" dxfId="236" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q265">
-    <cfRule type="containsText" dxfId="235" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="containsText" dxfId="234" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="containsText" dxfId="233" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="containsText" dxfId="232" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O265">
-    <cfRule type="containsText" dxfId="231" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R265">
-    <cfRule type="containsText" dxfId="230" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U265">
-    <cfRule type="containsText" dxfId="229" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T265 V265">
-    <cfRule type="containsText" dxfId="228" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S265">
-    <cfRule type="containsText" dxfId="227" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266 L266 N266 P266 F266:H266 F273:H273">
-    <cfRule type="containsText" dxfId="226" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E266 E273">
-    <cfRule type="containsText" dxfId="225" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q266">
-    <cfRule type="containsText" dxfId="224" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="containsText" dxfId="223" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266">
-    <cfRule type="containsText" dxfId="222" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266">
-    <cfRule type="containsText" dxfId="221" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O266">
-    <cfRule type="containsText" dxfId="220" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R266">
-    <cfRule type="containsText" dxfId="219" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U266">
-    <cfRule type="containsText" dxfId="218" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T266 V266">
-    <cfRule type="containsText" dxfId="217" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S266">
-    <cfRule type="containsText" dxfId="216" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J273 L273 N273 P273">
-    <cfRule type="containsText" dxfId="215" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q273">
-    <cfRule type="containsText" dxfId="214" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I273">
-    <cfRule type="containsText" dxfId="213" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K273">
-    <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M273">
-    <cfRule type="containsText" dxfId="211" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O273">
-    <cfRule type="containsText" dxfId="210" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R273">
-    <cfRule type="containsText" dxfId="209" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U273">
-    <cfRule type="containsText" dxfId="208" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T273 V273">
-    <cfRule type="containsText" dxfId="207" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S273">
-    <cfRule type="containsText" dxfId="206" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D274">
-    <cfRule type="containsText" dxfId="205" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="containsText" dxfId="204" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274:H274">
-    <cfRule type="containsText" dxfId="203" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274">
-    <cfRule type="containsText" dxfId="202" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J274 L274 N274 P274">
-    <cfRule type="containsText" dxfId="201" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q274">
-    <cfRule type="containsText" dxfId="200" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I274">
-    <cfRule type="containsText" dxfId="199" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274">
-    <cfRule type="containsText" dxfId="198" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M274">
-    <cfRule type="containsText" dxfId="197" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O274">
-    <cfRule type="containsText" dxfId="196" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274">
-    <cfRule type="containsText" dxfId="195" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U274">
-    <cfRule type="containsText" dxfId="194" priority="205" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="205" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T274 V274">
-    <cfRule type="containsText" dxfId="193" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S274">
-    <cfRule type="containsText" dxfId="192" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D275">
-    <cfRule type="containsText" dxfId="191" priority="204" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="204" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="containsText" dxfId="190" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:H275">
-    <cfRule type="containsText" dxfId="189" priority="202" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="202" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E275">
-    <cfRule type="containsText" dxfId="188" priority="201" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="201" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J275 L275 N275 P275">
-    <cfRule type="containsText" dxfId="187" priority="200" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="200" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q275">
-    <cfRule type="containsText" dxfId="186" priority="194" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="194" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I275">
-    <cfRule type="containsText" dxfId="185" priority="199" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="199" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K275">
-    <cfRule type="containsText" dxfId="184" priority="198" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="198" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M275">
-    <cfRule type="containsText" dxfId="183" priority="197" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O275">
-    <cfRule type="containsText" dxfId="182" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275">
-    <cfRule type="containsText" dxfId="181" priority="195" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="195" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U275">
-    <cfRule type="containsText" dxfId="180" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T275 V275">
-    <cfRule type="containsText" dxfId="179" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S275">
-    <cfRule type="containsText" dxfId="178" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D276">
-    <cfRule type="containsText" dxfId="177" priority="190" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="190" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C276">
-    <cfRule type="containsText" dxfId="176" priority="189" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="189" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F276:H276">
-    <cfRule type="containsText" dxfId="175" priority="188" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="188" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E276">
-    <cfRule type="containsText" dxfId="174" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J276 L276 N276 P276">
-    <cfRule type="containsText" dxfId="173" priority="186" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="186" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q276">
-    <cfRule type="containsText" dxfId="172" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I276">
-    <cfRule type="containsText" dxfId="171" priority="185" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K276">
-    <cfRule type="containsText" dxfId="170" priority="184" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M276">
-    <cfRule type="containsText" dxfId="169" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O276">
-    <cfRule type="containsText" dxfId="168" priority="182" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R276">
-    <cfRule type="containsText" dxfId="167" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U276">
-    <cfRule type="containsText" dxfId="166" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T276 V276">
-    <cfRule type="containsText" dxfId="165" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S276">
-    <cfRule type="containsText" dxfId="164" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D277">
-    <cfRule type="containsText" dxfId="163" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C277">
-    <cfRule type="containsText" dxfId="162" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277:H277">
-    <cfRule type="containsText" dxfId="161" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E277">
-    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J277 L277 N277 P277">
-    <cfRule type="containsText" dxfId="159" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="containsText" dxfId="158" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I277">
-    <cfRule type="containsText" dxfId="157" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K277">
-    <cfRule type="containsText" dxfId="156" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M277">
-    <cfRule type="containsText" dxfId="155" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277">
-    <cfRule type="containsText" dxfId="154" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R277">
-    <cfRule type="containsText" dxfId="153" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U277">
-    <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T277 V277">
-    <cfRule type="containsText" dxfId="151" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S277">
-    <cfRule type="containsText" dxfId="150" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U268">
-    <cfRule type="containsText" dxfId="149" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U267">
-    <cfRule type="containsText" dxfId="148" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U270">
-    <cfRule type="containsText" dxfId="147" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278">
-    <cfRule type="containsText" dxfId="146" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C278">
-    <cfRule type="containsText" dxfId="145" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F278:H278">
-    <cfRule type="containsText" dxfId="144" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278">
-    <cfRule type="containsText" dxfId="143" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J278 L278 N278 P278">
-    <cfRule type="containsText" dxfId="142" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q278">
-    <cfRule type="containsText" dxfId="141" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I278">
-    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K278">
-    <cfRule type="containsText" dxfId="139" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M278">
-    <cfRule type="containsText" dxfId="138" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O278">
-    <cfRule type="containsText" dxfId="137" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R278">
-    <cfRule type="containsText" dxfId="136" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U278">
-    <cfRule type="containsText" dxfId="135" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T278 V278">
-    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S278">
-    <cfRule type="containsText" dxfId="133" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="containsText" dxfId="132" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C279">
-    <cfRule type="containsText" dxfId="131" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279:H279">
-    <cfRule type="containsText" dxfId="130" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E279">
-    <cfRule type="containsText" dxfId="129" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J279 L279 N279 P279">
-    <cfRule type="containsText" dxfId="128" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q279">
-    <cfRule type="containsText" dxfId="127" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I279">
-    <cfRule type="containsText" dxfId="126" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K279">
-    <cfRule type="containsText" dxfId="125" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M279">
-    <cfRule type="containsText" dxfId="124" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O279">
-    <cfRule type="containsText" dxfId="123" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R279">
-    <cfRule type="containsText" dxfId="122" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U279">
-    <cfRule type="containsText" dxfId="121" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T279 V279">
-    <cfRule type="containsText" dxfId="120" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S279">
-    <cfRule type="containsText" dxfId="119" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D280">
-    <cfRule type="containsText" dxfId="118" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280">
-    <cfRule type="containsText" dxfId="117" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F280:H280">
-    <cfRule type="containsText" dxfId="116" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E280">
-    <cfRule type="containsText" dxfId="115" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J280 L280 N280 P280">
-    <cfRule type="containsText" dxfId="114" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q280">
-    <cfRule type="containsText" dxfId="113" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I280">
-    <cfRule type="containsText" dxfId="112" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280">
-    <cfRule type="containsText" dxfId="111" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M280">
-    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O280">
-    <cfRule type="containsText" dxfId="109" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R280">
-    <cfRule type="containsText" dxfId="108" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U280">
-    <cfRule type="containsText" dxfId="107" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T280 V280">
-    <cfRule type="containsText" dxfId="106" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S280">
-    <cfRule type="containsText" dxfId="105" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="containsText" dxfId="104" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C281">
-    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F281:H281">
-    <cfRule type="containsText" dxfId="102" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281">
-    <cfRule type="containsText" dxfId="101" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J281 L281 N281 P281">
-    <cfRule type="containsText" dxfId="100" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q281">
-    <cfRule type="containsText" dxfId="99" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I281">
-    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K281">
-    <cfRule type="containsText" dxfId="97" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M281">
-    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O281">
-    <cfRule type="containsText" dxfId="95" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R281">
-    <cfRule type="containsText" dxfId="94" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U281">
-    <cfRule type="containsText" dxfId="93" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T281 V281">
-    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S281">
-    <cfRule type="containsText" dxfId="91" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="containsText" dxfId="90" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C268">
-    <cfRule type="containsText" dxfId="89" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J268 L268 N268 P268 F268:H268">
-    <cfRule type="containsText" dxfId="88" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E268">
-    <cfRule type="containsText" dxfId="87" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q268">
-    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I268">
-    <cfRule type="containsText" dxfId="85" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K268">
-    <cfRule type="containsText" dxfId="84" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M268">
-    <cfRule type="containsText" dxfId="83" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O268">
-    <cfRule type="containsText" dxfId="82" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R268">
-    <cfRule type="containsText" dxfId="81" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T268 V268">
-    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S268">
-    <cfRule type="containsText" dxfId="79" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D267">
-    <cfRule type="containsText" dxfId="78" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267">
-    <cfRule type="containsText" dxfId="77" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J267 L267 N267 P267 F267:H267">
-    <cfRule type="containsText" dxfId="76" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E267">
-    <cfRule type="containsText" dxfId="75" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q267">
-    <cfRule type="containsText" dxfId="74" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="containsText" dxfId="73" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K267">
-    <cfRule type="containsText" dxfId="72" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M267">
-    <cfRule type="containsText" dxfId="71" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267">
-    <cfRule type="containsText" dxfId="70" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R267">
-    <cfRule type="containsText" dxfId="69" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T267 V267">
-    <cfRule type="containsText" dxfId="68" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S267">
-    <cfRule type="containsText" dxfId="67" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U269">
-    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C269">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J269 L269 N269 P269 F269:H269">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q269">
-    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I269">
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K269">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M269">
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O269">
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R269">
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T269 V269">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S269">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270">
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J270 L270 N270 P270 F270:H270">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270">
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q270">
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I270">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K270">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M270">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R270">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270 V270">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S270">
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U271">
-    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271">
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C271">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J271 L271 N271 P271 F271:H271">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q271">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I271">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K271">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M271">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O271">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R271">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T271 V271">
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S271">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U272">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D272">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C272">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J272 L272 N272 P272 F272:H272">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E272">
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q272">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I272">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M272">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T272 V272">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S272">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D282">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C282">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282:H282">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J282 L282 N282 P282">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q282">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I282">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K282">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M282">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O282">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R282">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U282">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T282 V282">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S282">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S282)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
+++ b/1.0-Validatie-_en_conformiteitsregels_TPOD/documentatie/Validatie-en-Conformiteitsregels Totaal v0.12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RicharddeGraaf\Desktop\Geonovum\4 - Voorbeeldbestanden\GITHub\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Default.DESKTOP-NDDI22K\Documents\Geonovum\github\xml_schematron\1.0-Validatie-_en_conformiteitsregels_TPOD\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCD7779-8D52-4669-A909-9D27DB4C3E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E84ACCA-F898-4076-B04F-FF02ED58A0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{CAF58E0D-33FE-46EB-ADA3-90D1B902B379}"/>
   </bookViews>
   <sheets>
     <sheet name="TPOD" sheetId="12" r:id="rId1"/>
@@ -2718,7 +2718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2893,35 +2893,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{DD73F50D-CE68-4CBD-BD67-3376699AD112}"/>
   </cellStyles>
-  <dxfs count="329">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="327">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -6518,8 +6495,8 @@
   <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13745,7 +13722,7 @@
       <c r="A90" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="B90" s="66" t="s">
+      <c r="B90" s="58" t="s">
         <v>766</v>
       </c>
       <c r="C90" s="50" t="s">
@@ -13824,7 +13801,7 @@
       <c r="A91" s="36" t="s">
         <v>703</v>
       </c>
-      <c r="B91" s="66" t="s">
+      <c r="B91" s="58" t="s">
         <v>767</v>
       </c>
       <c r="C91" s="50" t="s">
@@ -14076,77 +14053,77 @@
   </sheetData>
   <autoFilter ref="A1:Y91" xr:uid="{9EE4866E-E834-4DB8-9ED6-70561D41353B}"/>
   <conditionalFormatting sqref="M63 O63 Q63 S63 U63 W63 Y63 B2:Y49 A2:A91">
-    <cfRule type="containsText" dxfId="328" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="326" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63">
-    <cfRule type="containsText" dxfId="327" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="325" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",N63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="326" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="324" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",L63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:K64">
-    <cfRule type="containsText" dxfId="325" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="323" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Y1">
-    <cfRule type="containsText" dxfId="324" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="322" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R63">
-    <cfRule type="containsText" dxfId="323" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="321" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T63">
-    <cfRule type="containsText" dxfId="322" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="320" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V63">
-    <cfRule type="containsText" dxfId="321" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="319" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",V63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X63">
-    <cfRule type="containsText" dxfId="320" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="318" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",X63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63">
-    <cfRule type="containsText" dxfId="319" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="317" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",P63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64">
-    <cfRule type="containsText" dxfId="318" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="316" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64">
-    <cfRule type="containsText" dxfId="317" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="315" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="316" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="314" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z49">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="313" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z64">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="312" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Z64)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37428,1562 +37405,1562 @@
   </sheetData>
   <autoFilter ref="A1:V343" xr:uid="{C54AF10E-E059-4F84-9C3A-10A5CBE61918}"/>
   <conditionalFormatting sqref="C180:H208 D209:D263 E209:E261 C209:C249 F209:H262 G283:H302 A28:A29 A1:E27 A152:H152 A30:F48 A59:H126 G1:V1 G2:H48 J2:J48 J59:J126 L59:L126 L2:L48 N2:N48 N59:N126 J152 J180:J262 L180:L262 L152 N152 N180:N262 P180:P262 P152 P59:P126 P2:P48 R2:R48 R59:R126 R152 T152 T59:T126 T2:T48 V2:V48 V59:V126 V152 P283:P302 N283:N302 L283:L302 J283:J302">
-    <cfRule type="containsText" dxfId="313" priority="351" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="311" priority="351" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:E29 F1:F29">
-    <cfRule type="containsText" dxfId="312" priority="350" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="310" priority="350" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="containsText" dxfId="311" priority="349" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="309" priority="349" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="310" priority="348" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="308" priority="348" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C283:C302">
-    <cfRule type="containsText" dxfId="309" priority="333" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="307" priority="333" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D283:F302">
-    <cfRule type="containsText" dxfId="308" priority="347" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="306" priority="347" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D283)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C262:C263 E262">
-    <cfRule type="containsText" dxfId="307" priority="334" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="305" priority="334" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C250">
-    <cfRule type="containsText" dxfId="306" priority="346" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="304" priority="346" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C250)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C251">
-    <cfRule type="containsText" dxfId="305" priority="345" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="303" priority="345" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="304" priority="344" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="302" priority="344" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253">
-    <cfRule type="containsText" dxfId="303" priority="343" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="301" priority="343" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C254">
-    <cfRule type="containsText" dxfId="302" priority="342" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="300" priority="342" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C255">
-    <cfRule type="containsText" dxfId="301" priority="341" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="299" priority="341" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C255)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C256">
-    <cfRule type="containsText" dxfId="300" priority="340" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="298" priority="340" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C256)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C257">
-    <cfRule type="containsText" dxfId="299" priority="339" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="297" priority="339" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C257)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C258">
-    <cfRule type="containsText" dxfId="298" priority="338" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="296" priority="338" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C258)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C259">
-    <cfRule type="containsText" dxfId="297" priority="337" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="295" priority="337" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C259)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C260">
-    <cfRule type="containsText" dxfId="296" priority="336" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="294" priority="336" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C260)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C261">
-    <cfRule type="containsText" dxfId="295" priority="335" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="293" priority="335" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:E53 G49:H53 J49:J53 L49:L53 N49:N53 P49:P53 R49:R53 T49:T53 V49:V53">
-    <cfRule type="containsText" dxfId="294" priority="327" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="292" priority="327" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F53">
-    <cfRule type="containsText" dxfId="293" priority="326" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="291" priority="326" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54:E58 G54:H58 J54:J58 L54:L58 N54:N58 P54:P58 R54:R58 T54:T58 V54:V58">
-    <cfRule type="containsText" dxfId="292" priority="325" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="290" priority="325" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",A54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F58">
-    <cfRule type="containsText" dxfId="291" priority="324" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="289" priority="324" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q48 Q59:Q126 Q152">
-    <cfRule type="containsText" dxfId="290" priority="302" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="288" priority="302" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q53">
-    <cfRule type="containsText" dxfId="289" priority="301" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="287" priority="301" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q54:Q58">
-    <cfRule type="containsText" dxfId="288" priority="300" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="286" priority="300" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S54:S58">
-    <cfRule type="containsText" dxfId="287" priority="297" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="285" priority="297" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U48 U59:U126 U152">
-    <cfRule type="containsText" dxfId="286" priority="296" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="284" priority="296" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U53">
-    <cfRule type="containsText" dxfId="285" priority="295" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="283" priority="295" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U54:U58">
-    <cfRule type="containsText" dxfId="284" priority="294" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="282" priority="294" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q180:Q262 Q283:Q302">
-    <cfRule type="containsText" dxfId="283" priority="289" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="281" priority="289" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I48 I59:I126 I152 I180:I262 I283:I302">
-    <cfRule type="containsText" dxfId="282" priority="314" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="280" priority="314" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="containsText" dxfId="281" priority="313" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="279" priority="313" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54:I58">
-    <cfRule type="containsText" dxfId="280" priority="312" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="278" priority="312" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59:K126 K2:K48 K180:K262 K152 K283:K302">
-    <cfRule type="containsText" dxfId="279" priority="311" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="277" priority="311" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K53">
-    <cfRule type="containsText" dxfId="278" priority="310" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="276" priority="310" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54:K58">
-    <cfRule type="containsText" dxfId="277" priority="309" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="275" priority="309" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M48 M59:M126 M152 M180:M262 M283:M302">
-    <cfRule type="containsText" dxfId="276" priority="308" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="274" priority="308" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="containsText" dxfId="275" priority="307" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="273" priority="307" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M54:M58">
-    <cfRule type="containsText" dxfId="274" priority="306" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="272" priority="306" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O180:O262 O152 O59:O126 O2:O48 O283:O302">
-    <cfRule type="containsText" dxfId="273" priority="305" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="271" priority="305" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O53">
-    <cfRule type="containsText" dxfId="272" priority="304" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="270" priority="304" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54:O58">
-    <cfRule type="containsText" dxfId="271" priority="303" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="269" priority="303" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S152 S59:S126 S2:S48">
-    <cfRule type="containsText" dxfId="270" priority="299" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="268" priority="299" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S53">
-    <cfRule type="containsText" dxfId="269" priority="298" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="267" priority="298" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V180:V261 T180:T261 T283:T302 V283:V302">
-    <cfRule type="containsText" dxfId="268" priority="293" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="266" priority="293" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U180:U261 U283:U302">
-    <cfRule type="containsText" dxfId="267" priority="292" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="265" priority="292" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S180:S261 S283:S302">
-    <cfRule type="containsText" dxfId="266" priority="291" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="264" priority="291" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R180:R262 R283:R302">
-    <cfRule type="containsText" dxfId="265" priority="290" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="263" priority="290" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F263:H263 J263 L263 N263 P263">
-    <cfRule type="containsText" dxfId="264" priority="288" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="262" priority="288" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E263">
-    <cfRule type="containsText" dxfId="263" priority="287" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="261" priority="287" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q263">
-    <cfRule type="containsText" dxfId="262" priority="278" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="260" priority="278" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I263">
-    <cfRule type="containsText" dxfId="261" priority="286" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="259" priority="286" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K263">
-    <cfRule type="containsText" dxfId="260" priority="285" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="258" priority="285" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M263">
-    <cfRule type="containsText" dxfId="259" priority="284" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="257" priority="284" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O263">
-    <cfRule type="containsText" dxfId="258" priority="283" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="256" priority="283" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K264">
-    <cfRule type="containsText" dxfId="257" priority="272" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="255" priority="272" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M264">
-    <cfRule type="containsText" dxfId="256" priority="271" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="254" priority="271" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O264">
-    <cfRule type="containsText" dxfId="255" priority="270" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="253" priority="270" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R263">
-    <cfRule type="containsText" dxfId="254" priority="279" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="252" priority="279" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D264:D266 D273">
-    <cfRule type="containsText" dxfId="253" priority="277" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="251" priority="277" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C266 C273">
-    <cfRule type="containsText" dxfId="252" priority="276" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="250" priority="276" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F264:H264 J264 L264 N264 P264">
-    <cfRule type="containsText" dxfId="251" priority="275" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="249" priority="275" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E264">
-    <cfRule type="containsText" dxfId="250" priority="274" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="248" priority="274" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q264">
-    <cfRule type="containsText" dxfId="249" priority="265" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="247" priority="265" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I264">
-    <cfRule type="containsText" dxfId="248" priority="273" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="246" priority="273" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V264 T264">
-    <cfRule type="containsText" dxfId="247" priority="269" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="245" priority="269" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U264">
-    <cfRule type="containsText" dxfId="246" priority="268" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="244" priority="268" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S264">
-    <cfRule type="containsText" dxfId="245" priority="267" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="243" priority="267" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R264">
-    <cfRule type="containsText" dxfId="244" priority="266" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="242" priority="266" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S262">
-    <cfRule type="containsText" dxfId="243" priority="255" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="241" priority="255" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U262">
-    <cfRule type="containsText" dxfId="242" priority="254" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="240" priority="254" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U263">
-    <cfRule type="containsText" dxfId="241" priority="251" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="239" priority="251" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T263 V263">
-    <cfRule type="containsText" dxfId="240" priority="253" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="238" priority="253" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T262 V262">
-    <cfRule type="containsText" dxfId="239" priority="256" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="237" priority="256" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T262)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S263">
-    <cfRule type="containsText" dxfId="238" priority="252" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="236" priority="252" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S263)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:H265 J265 L265 N265 P265">
-    <cfRule type="containsText" dxfId="237" priority="250" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="235" priority="250" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E265">
-    <cfRule type="containsText" dxfId="236" priority="249" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="234" priority="249" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q265">
-    <cfRule type="containsText" dxfId="235" priority="243" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="233" priority="243" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I265">
-    <cfRule type="containsText" dxfId="234" priority="248" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="232" priority="248" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K265">
-    <cfRule type="containsText" dxfId="233" priority="247" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="231" priority="247" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M265">
-    <cfRule type="containsText" dxfId="232" priority="246" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="230" priority="246" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O265">
-    <cfRule type="containsText" dxfId="231" priority="245" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="229" priority="245" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R265">
-    <cfRule type="containsText" dxfId="230" priority="244" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="228" priority="244" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U265">
-    <cfRule type="containsText" dxfId="229" priority="240" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="227" priority="240" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T265 V265">
-    <cfRule type="containsText" dxfId="228" priority="242" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="226" priority="242" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S265">
-    <cfRule type="containsText" dxfId="227" priority="241" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="225" priority="241" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S265)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J266 L266 N266 P266 F266:H266 F273:H273">
-    <cfRule type="containsText" dxfId="226" priority="239" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="224" priority="239" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E266 E273">
-    <cfRule type="containsText" dxfId="225" priority="238" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="223" priority="238" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q266">
-    <cfRule type="containsText" dxfId="224" priority="232" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="222" priority="232" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I266">
-    <cfRule type="containsText" dxfId="223" priority="237" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="221" priority="237" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K266">
-    <cfRule type="containsText" dxfId="222" priority="236" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="220" priority="236" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M266">
-    <cfRule type="containsText" dxfId="221" priority="235" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="219" priority="235" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O266">
-    <cfRule type="containsText" dxfId="220" priority="234" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="218" priority="234" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R266">
-    <cfRule type="containsText" dxfId="219" priority="233" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="217" priority="233" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U266">
-    <cfRule type="containsText" dxfId="218" priority="229" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="216" priority="229" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T266 V266">
-    <cfRule type="containsText" dxfId="217" priority="231" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="215" priority="231" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S266">
-    <cfRule type="containsText" dxfId="216" priority="230" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="214" priority="230" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S266)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J273 L273 N273 P273">
-    <cfRule type="containsText" dxfId="215" priority="228" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="213" priority="228" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q273">
-    <cfRule type="containsText" dxfId="214" priority="222" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="212" priority="222" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I273">
-    <cfRule type="containsText" dxfId="213" priority="227" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="211" priority="227" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K273">
-    <cfRule type="containsText" dxfId="212" priority="226" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="210" priority="226" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M273">
-    <cfRule type="containsText" dxfId="211" priority="225" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="209" priority="225" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O273">
-    <cfRule type="containsText" dxfId="210" priority="224" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="208" priority="224" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R273">
-    <cfRule type="containsText" dxfId="209" priority="223" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="207" priority="223" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U273">
-    <cfRule type="containsText" dxfId="208" priority="219" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="206" priority="219" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T273 V273">
-    <cfRule type="containsText" dxfId="207" priority="221" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="205" priority="221" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S273">
-    <cfRule type="containsText" dxfId="206" priority="220" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="204" priority="220" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S273)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D274">
-    <cfRule type="containsText" dxfId="205" priority="218" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="203" priority="218" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C274">
-    <cfRule type="containsText" dxfId="204" priority="217" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="202" priority="217" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274:H274">
-    <cfRule type="containsText" dxfId="203" priority="216" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="201" priority="216" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E274">
-    <cfRule type="containsText" dxfId="202" priority="215" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="200" priority="215" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J274 L274 N274 P274">
-    <cfRule type="containsText" dxfId="201" priority="214" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="199" priority="214" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q274">
-    <cfRule type="containsText" dxfId="200" priority="208" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="198" priority="208" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I274">
-    <cfRule type="containsText" dxfId="199" priority="213" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="197" priority="213" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K274">
-    <cfRule type="containsText" dxfId="198" priority="212" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="196" priority="212" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M274">
-    <cfRule type="containsText" dxfId="197" priority="211" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="195" priority="211" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O274">
-    <cfRule type="containsText" dxfId="196" priority="210" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="194" priority="210" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R274">
-    <cfRule type="containsText" dxfId="195" priority="209" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="193" priority="209" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U274">
-    <cfRule type="containsText" dxfId="194" priority="205" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="192" priority="205" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T274 V274">
-    <cfRule type="containsText" dxfId="193" priority="207" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="191" priority="207" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S274">
-    <cfRule type="containsText" dxfId="192" priority="206" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="190" priority="206" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S274)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D275">
-    <cfRule type="containsText" dxfId="191" priority="204" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="189" priority="204" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C275">
-    <cfRule type="containsText" dxfId="190" priority="203" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="188" priority="203" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275:H275">
-    <cfRule type="containsText" dxfId="189" priority="202" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="187" priority="202" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E275">
-    <cfRule type="containsText" dxfId="188" priority="201" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="186" priority="201" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J275 L275 N275 P275">
-    <cfRule type="containsText" dxfId="187" priority="200" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="185" priority="200" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q275">
-    <cfRule type="containsText" dxfId="186" priority="194" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="184" priority="194" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I275">
-    <cfRule type="containsText" dxfId="185" priority="199" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="183" priority="199" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K275">
-    <cfRule type="containsText" dxfId="184" priority="198" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="182" priority="198" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M275">
-    <cfRule type="containsText" dxfId="183" priority="197" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="181" priority="197" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O275">
-    <cfRule type="containsText" dxfId="182" priority="196" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="180" priority="196" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R275">
-    <cfRule type="containsText" dxfId="181" priority="195" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="179" priority="195" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U275">
-    <cfRule type="containsText" dxfId="180" priority="191" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="178" priority="191" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T275 V275">
-    <cfRule type="containsText" dxfId="179" priority="193" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="177" priority="193" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S275">
-    <cfRule type="containsText" dxfId="178" priority="192" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="176" priority="192" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S275)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D276">
-    <cfRule type="containsText" dxfId="177" priority="190" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="175" priority="190" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C276">
-    <cfRule type="containsText" dxfId="176" priority="189" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="174" priority="189" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F276:H276">
-    <cfRule type="containsText" dxfId="175" priority="188" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="173" priority="188" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E276">
-    <cfRule type="containsText" dxfId="174" priority="187" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="172" priority="187" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J276 L276 N276 P276">
-    <cfRule type="containsText" dxfId="173" priority="186" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="171" priority="186" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q276">
-    <cfRule type="containsText" dxfId="172" priority="180" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="170" priority="180" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I276">
-    <cfRule type="containsText" dxfId="171" priority="185" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="169" priority="185" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K276">
-    <cfRule type="containsText" dxfId="170" priority="184" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="168" priority="184" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M276">
-    <cfRule type="containsText" dxfId="169" priority="183" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="167" priority="183" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O276">
-    <cfRule type="containsText" dxfId="168" priority="182" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="166" priority="182" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R276">
-    <cfRule type="containsText" dxfId="167" priority="181" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="165" priority="181" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U276">
-    <cfRule type="containsText" dxfId="166" priority="177" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="164" priority="177" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T276 V276">
-    <cfRule type="containsText" dxfId="165" priority="179" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="163" priority="179" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S276">
-    <cfRule type="containsText" dxfId="164" priority="178" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="162" priority="178" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S276)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D277">
-    <cfRule type="containsText" dxfId="163" priority="176" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="161" priority="176" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C277">
-    <cfRule type="containsText" dxfId="162" priority="175" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="160" priority="175" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F277:H277">
-    <cfRule type="containsText" dxfId="161" priority="174" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="159" priority="174" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E277">
-    <cfRule type="containsText" dxfId="160" priority="173" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="158" priority="173" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J277 L277 N277 P277">
-    <cfRule type="containsText" dxfId="159" priority="172" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="157" priority="172" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="containsText" dxfId="158" priority="166" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="156" priority="166" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I277">
-    <cfRule type="containsText" dxfId="157" priority="171" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="155" priority="171" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K277">
-    <cfRule type="containsText" dxfId="156" priority="170" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="154" priority="170" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M277">
-    <cfRule type="containsText" dxfId="155" priority="169" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="153" priority="169" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O277">
-    <cfRule type="containsText" dxfId="154" priority="168" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="152" priority="168" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R277">
-    <cfRule type="containsText" dxfId="153" priority="167" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="151" priority="167" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U277">
-    <cfRule type="containsText" dxfId="152" priority="163" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="150" priority="163" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T277 V277">
-    <cfRule type="containsText" dxfId="151" priority="165" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="149" priority="165" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S277">
-    <cfRule type="containsText" dxfId="150" priority="164" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="148" priority="164" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S277)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U268">
-    <cfRule type="containsText" dxfId="149" priority="67" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="147" priority="67" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U267">
-    <cfRule type="containsText" dxfId="148" priority="80" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="146" priority="80" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U270">
-    <cfRule type="containsText" dxfId="147" priority="41" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="145" priority="41" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D278">
-    <cfRule type="containsText" dxfId="146" priority="162" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="144" priority="162" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C278">
-    <cfRule type="containsText" dxfId="145" priority="161" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="143" priority="161" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F278:H278">
-    <cfRule type="containsText" dxfId="144" priority="160" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="142" priority="160" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E278">
-    <cfRule type="containsText" dxfId="143" priority="159" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="141" priority="159" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J278 L278 N278 P278">
-    <cfRule type="containsText" dxfId="142" priority="158" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="140" priority="158" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q278">
-    <cfRule type="containsText" dxfId="141" priority="152" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="139" priority="152" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I278">
-    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="138" priority="157" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K278">
-    <cfRule type="containsText" dxfId="139" priority="156" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="137" priority="156" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M278">
-    <cfRule type="containsText" dxfId="138" priority="155" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="136" priority="155" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O278">
-    <cfRule type="containsText" dxfId="137" priority="154" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="135" priority="154" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R278">
-    <cfRule type="containsText" dxfId="136" priority="153" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="134" priority="153" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U278">
-    <cfRule type="containsText" dxfId="135" priority="149" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="133" priority="149" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T278 V278">
-    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="132" priority="151" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S278">
-    <cfRule type="containsText" dxfId="133" priority="150" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="131" priority="150" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="containsText" dxfId="132" priority="148" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="130" priority="148" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C279">
-    <cfRule type="containsText" dxfId="131" priority="147" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="129" priority="147" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F279:H279">
-    <cfRule type="containsText" dxfId="130" priority="146" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="128" priority="146" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E279">
-    <cfRule type="containsText" dxfId="129" priority="145" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="127" priority="145" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J279 L279 N279 P279">
-    <cfRule type="containsText" dxfId="128" priority="144" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="126" priority="144" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q279">
-    <cfRule type="containsText" dxfId="127" priority="138" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="125" priority="138" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I279">
-    <cfRule type="containsText" dxfId="126" priority="143" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K279">
-    <cfRule type="containsText" dxfId="125" priority="142" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="123" priority="142" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M279">
-    <cfRule type="containsText" dxfId="124" priority="141" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="122" priority="141" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O279">
-    <cfRule type="containsText" dxfId="123" priority="140" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R279">
-    <cfRule type="containsText" dxfId="122" priority="139" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="120" priority="139" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U279">
-    <cfRule type="containsText" dxfId="121" priority="135" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="119" priority="135" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T279 V279">
-    <cfRule type="containsText" dxfId="120" priority="137" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="118" priority="137" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S279">
-    <cfRule type="containsText" dxfId="119" priority="136" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="117" priority="136" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D280">
-    <cfRule type="containsText" dxfId="118" priority="134" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="116" priority="134" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C280">
-    <cfRule type="containsText" dxfId="117" priority="133" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="115" priority="133" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F280:H280">
-    <cfRule type="containsText" dxfId="116" priority="132" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="114" priority="132" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E280">
-    <cfRule type="containsText" dxfId="115" priority="131" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="113" priority="131" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J280 L280 N280 P280">
-    <cfRule type="containsText" dxfId="114" priority="130" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="112" priority="130" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q280">
-    <cfRule type="containsText" dxfId="113" priority="124" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="111" priority="124" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I280">
-    <cfRule type="containsText" dxfId="112" priority="129" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="110" priority="129" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K280">
-    <cfRule type="containsText" dxfId="111" priority="128" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M280">
-    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="108" priority="127" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O280">
-    <cfRule type="containsText" dxfId="109" priority="126" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="107" priority="126" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R280">
-    <cfRule type="containsText" dxfId="108" priority="125" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="106" priority="125" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U280">
-    <cfRule type="containsText" dxfId="107" priority="121" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="105" priority="121" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T280 V280">
-    <cfRule type="containsText" dxfId="106" priority="123" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="104" priority="123" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S280">
-    <cfRule type="containsText" dxfId="105" priority="122" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="103" priority="122" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S280)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="containsText" dxfId="104" priority="120" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="102" priority="120" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C281">
-    <cfRule type="containsText" dxfId="103" priority="119" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="101" priority="119" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F281:H281">
-    <cfRule type="containsText" dxfId="102" priority="118" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="100" priority="118" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E281">
-    <cfRule type="containsText" dxfId="101" priority="117" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="99" priority="117" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J281 L281 N281 P281">
-    <cfRule type="containsText" dxfId="100" priority="116" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="98" priority="116" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q281">
-    <cfRule type="containsText" dxfId="99" priority="110" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="97" priority="110" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I281">
-    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="96" priority="115" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K281">
-    <cfRule type="containsText" dxfId="97" priority="114" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="95" priority="114" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M281">
-    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="94" priority="113" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O281">
-    <cfRule type="containsText" dxfId="95" priority="112" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R281">
-    <cfRule type="containsText" dxfId="94" priority="111" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="92" priority="111" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U281">
-    <cfRule type="containsText" dxfId="93" priority="107" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="91" priority="107" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T281 V281">
-    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="90" priority="109" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S281">
-    <cfRule type="containsText" dxfId="91" priority="108" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="89" priority="108" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S281)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D268">
-    <cfRule type="containsText" dxfId="90" priority="79" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="88" priority="79" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C268">
-    <cfRule type="containsText" dxfId="89" priority="78" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J268 L268 N268 P268 F268:H268">
-    <cfRule type="containsText" dxfId="88" priority="77" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="86" priority="77" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E268">
-    <cfRule type="containsText" dxfId="87" priority="76" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="85" priority="76" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q268">
-    <cfRule type="containsText" dxfId="86" priority="70" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="84" priority="70" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I268">
-    <cfRule type="containsText" dxfId="85" priority="75" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="83" priority="75" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K268">
-    <cfRule type="containsText" dxfId="84" priority="74" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="82" priority="74" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M268">
-    <cfRule type="containsText" dxfId="83" priority="73" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="81" priority="73" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O268">
-    <cfRule type="containsText" dxfId="82" priority="72" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="80" priority="72" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R268">
-    <cfRule type="containsText" dxfId="81" priority="71" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="79" priority="71" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T268 V268">
-    <cfRule type="containsText" dxfId="80" priority="69" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="78" priority="69" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S268">
-    <cfRule type="containsText" dxfId="79" priority="68" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S268)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D267">
-    <cfRule type="containsText" dxfId="78" priority="92" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="76" priority="92" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C267">
-    <cfRule type="containsText" dxfId="77" priority="91" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="75" priority="91" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J267 L267 N267 P267 F267:H267">
-    <cfRule type="containsText" dxfId="76" priority="90" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="74" priority="90" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E267">
-    <cfRule type="containsText" dxfId="75" priority="89" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="73" priority="89" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q267">
-    <cfRule type="containsText" dxfId="74" priority="83" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="72" priority="83" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I267">
-    <cfRule type="containsText" dxfId="73" priority="88" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="71" priority="88" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K267">
-    <cfRule type="containsText" dxfId="72" priority="87" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="70" priority="87" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M267">
-    <cfRule type="containsText" dxfId="71" priority="86" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="69" priority="86" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O267">
-    <cfRule type="containsText" dxfId="70" priority="85" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R267">
-    <cfRule type="containsText" dxfId="69" priority="84" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="67" priority="84" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T267 V267">
-    <cfRule type="containsText" dxfId="68" priority="82" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="66" priority="82" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S267">
-    <cfRule type="containsText" dxfId="67" priority="81" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="65" priority="81" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S267)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U269">
-    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="64" priority="54" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D269">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C269">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="62" priority="65" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J269 L269 N269 P269 F269:H269">
-    <cfRule type="containsText" dxfId="63" priority="64" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E269">
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q269">
-    <cfRule type="containsText" dxfId="61" priority="57" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I269">
-    <cfRule type="containsText" dxfId="60" priority="62" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K269">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="57" priority="61" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M269">
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="56" priority="60" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O269">
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R269">
-    <cfRule type="containsText" dxfId="56" priority="58" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="54" priority="58" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T269 V269">
-    <cfRule type="containsText" dxfId="55" priority="56" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S269">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D270">
-    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="51" priority="53" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C270">
-    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J270 L270 N270 P270 F270:H270">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="49" priority="51" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E270">
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q270">
-    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="47" priority="44" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I270">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K270">
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M270">
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O270">
-    <cfRule type="containsText" dxfId="45" priority="46" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R270">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T270 V270">
-    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S270">
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S270)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U271">
-    <cfRule type="containsText" dxfId="41" priority="28" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271">
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C271">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J271 L271 N271 P271 F271:H271">
-    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E271">
-    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q271">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I271">
-    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K271">
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M271">
-    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O271">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R271">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T271 V271">
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S271">
-    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S271)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U272">
-    <cfRule type="containsText" dxfId="28" priority="15" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D272">
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C272">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J272 L272 N272 P272 F272:H272">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E272">
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q272">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="21" priority="18" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I272">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K272">
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M272">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="18" priority="21" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O272">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R272">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T272 V272">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S272">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S272)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D282">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",D282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C282">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",C282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282:H282">
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",F282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E282">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",E282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J282 L282 N282 P282">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",J282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q282">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",Q282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I282">
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",I282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K282">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",K282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M282">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",M282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O282">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",O282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R282">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",R282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U282">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",U282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T282 V282">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",T282)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S282">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&lt;?&gt;">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="&lt;?&gt;">
       <formula>NOT(ISERROR(SEARCH("&lt;?&gt;",S282)))</formula>
     </cfRule>
   </conditionalFormatting>
